--- a/DataInput/Symbols_MarketCap_MarketCapCategoryRange.xlsx
+++ b/DataInput/Symbols_MarketCap_MarketCapCategoryRange.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abbcc666f3bf995/Documents/MATLAB_Projects/BackTradeModule_Project/DataInput/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abbcc666f3bf995/Documents/Private/MATLAB_Projects/QTrade_Project/DataInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{8A41E6FA-7E23-45D1-B8A0-629F0A6793CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A19EA491-522D-4CF2-A040-0F5275D9453E}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{8A41E6FA-7E23-45D1-B8A0-629F0A6793CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA6BE8E1-9909-4A89-BC62-0FCF7F5785A2}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="0" windowWidth="11490" windowHeight="15600" firstSheet="1" activeTab="1" xr2:uid="{FBBB7E98-F13C-4020-818F-37A059CD2F24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FBBB7E98-F13C-4020-818F-37A059CD2F24}"/>
   </bookViews>
   <sheets>
     <sheet name="SymbolsMarketCapReference" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1435" uniqueCount="1435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1436" uniqueCount="1436">
   <si>
     <t>No</t>
   </si>
@@ -4318,37 +4318,39 @@
     <t>Cap Category</t>
   </si>
   <si>
-    <t>N of symbols</t>
-  </si>
-  <si>
-    <t>Value&gt;Rp 1Bn</t>
-  </si>
-  <si>
-    <t>Upper Big Cap</t>
-  </si>
-  <si>
-    <t>Lower Big Cap</t>
-  </si>
-  <si>
-    <t>Upper Mid Cap</t>
-  </si>
-  <si>
-    <t>Lower Mid Cap</t>
-  </si>
-  <si>
-    <t>Upper Small Cap</t>
-  </si>
-  <si>
-    <t>Lower Small Cap</t>
+    <t>HighLargeCap</t>
+  </si>
+  <si>
+    <t>MidLargeCap</t>
+  </si>
+  <si>
+    <t>LowLargeCap</t>
+  </si>
+  <si>
+    <t>HighMidCap</t>
+  </si>
+  <si>
+    <t>MidMidCap</t>
+  </si>
+  <si>
+    <t>LowMidCap</t>
+  </si>
+  <si>
+    <t>HighSmallCap</t>
+  </si>
+  <si>
+    <t>MidSmallCap</t>
+  </si>
+  <si>
+    <t>LowSmallCap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_(#,##0.00_)_%;\(#,##0.00\)_%;_(&quot;–&quot;_)_%;_(@_)_%"/>
-    <numFmt numFmtId="165" formatCode="_(#,##0_)_%;\(#,##0\)_%;_(&quot;–&quot;_)_%;_(@_)_%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -4382,7 +4384,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -4474,78 +4476,133 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -4554,7 +4611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -4566,16 +4623,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4921,7 +4980,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1C312-C468-4301-85DB-A357859DE19C}">
   <dimension ref="A1:F711"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -19163,140 +19222,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C93236C-DC78-4F1B-B1CA-8FCC9D70B699}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:3" ht="17.25" x14ac:dyDescent="0.4">
+      <c r="A1" s="13" t="s">
         <v>1424</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="14" t="s">
         <v>1425</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="15" t="s">
         <v>1426</v>
       </c>
-      <c r="D1" s="12" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>80</v>
+      </c>
+      <c r="B2" s="11">
+        <v>10000</v>
+      </c>
+      <c r="C2" s="17" t="s">
         <v>1427</v>
       </c>
-      <c r="E1" s="13" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>40</v>
+      </c>
+      <c r="B3" s="11">
+        <v>80</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>1428</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>30</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C2" s="5" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>20</v>
+      </c>
+      <c r="B4" s="11">
+        <v>40</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>1429</v>
       </c>
-      <c r="D2" s="15">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>12</v>
+      </c>
+      <c r="B5" s="11">
+        <v>20</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>8</v>
+      </c>
+      <c r="B6" s="11">
+        <v>12</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11">
+        <v>8</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
+        <v>2</v>
+      </c>
+      <c r="B8" s="12">
+        <v>5</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" s="12">
+        <v>2</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="20">
         <v>0</v>
       </c>
-      <c r="E2" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>10</v>
-      </c>
-      <c r="B3" s="5">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>1430</v>
-      </c>
-      <c r="D3" s="15">
-        <v>0</v>
-      </c>
-      <c r="E3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <v>10</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>1431</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="14">
-        <v>2</v>
-      </c>
-      <c r="B5" s="5">
-        <v>5</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14">
+      <c r="B10" s="21">
         <v>1</v>
       </c>
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>1433</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>0</v>
-      </c>
-      <c r="B7" s="18">
-        <v>1</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>1434</v>
-      </c>
-      <c r="D7" s="19">
-        <v>709</v>
-      </c>
-      <c r="E7" s="20">
-        <v>375</v>
+      <c r="C10" s="22" t="s">
+        <v>1435</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:E7">
+  <conditionalFormatting sqref="A2:C10">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>MOD(ROW(),2)=1</formula>
     </cfRule>

--- a/DataInput/Symbols_MarketCap_MarketCapCategoryRange.xlsx
+++ b/DataInput/Symbols_MarketCap_MarketCapCategoryRange.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abbcc666f3bf995/Documents/Private/MATLAB Project in PSN Laptop/QTrade_Project/DataInput/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abbcc666f3bf995/Documents/Private/MATLAB_Projects/QTrade_Project/DataInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="114_{DEBBC724-07F9-4733-B83E-323874A73E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{186F40F9-86EF-4971-B11C-B2EE5578344D}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="114_{DEBBC724-07F9-4733-B83E-323874A73E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{92E50736-C3B1-465F-A67B-2890D3983269}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{FBBB7E98-F13C-4020-818F-37A059CD2F24}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{FBBB7E98-F13C-4020-818F-37A059CD2F24}"/>
   </bookViews>
   <sheets>
     <sheet name="SymbolsMarketCapReference" sheetId="1" r:id="rId1"/>
     <sheet name="MarketCap_Category_Range" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1434" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="1437">
   <si>
     <t>No</t>
   </si>
@@ -4315,28 +4315,37 @@
     <t>UB</t>
   </si>
   <si>
+    <t>Multiples</t>
+  </si>
+  <si>
+    <t>CapCateg</t>
+  </si>
+  <si>
     <t>HighLargeCap</t>
   </si>
   <si>
+    <t>MidLargeCap</t>
+  </si>
+  <si>
     <t>LowLargeCap</t>
   </si>
   <si>
     <t>HighMidCap</t>
   </si>
   <si>
+    <t>MidMidCap</t>
+  </si>
+  <si>
     <t>LowMidCap</t>
   </si>
   <si>
     <t>HighSmallCap</t>
   </si>
   <si>
+    <t>MidSmallCap</t>
+  </si>
+  <si>
     <t>LowSmallCap</t>
-  </si>
-  <si>
-    <t>Multiples</t>
-  </si>
-  <si>
-    <t>CapCateg</t>
   </si>
 </sst>
 </file>
@@ -4863,15 +4872,15 @@
       <selection pane="bottomRight" activeCell="E242" sqref="E242"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -4891,7 +4900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -4911,7 +4920,7 @@
         <v>29.583075000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4931,7 +4940,7 @@
         <v>6.3121679999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4951,7 +4960,7 @@
         <v>1.3640000000000001E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4971,7 +4980,7 @@
         <v>18.369450000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4991,7 +5000,7 @@
         <v>27.006345</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -5011,7 +5020,7 @@
         <v>4.8684919999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -5031,7 +5040,7 @@
         <v>0.11203521</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -5051,7 +5060,7 @@
         <v>30.319240000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -5071,7 +5080,7 @@
         <v>0.1034495</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -5091,7 +5100,7 @@
         <v>0.665655</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -5111,7 +5120,7 @@
         <v>343.23149999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -5131,7 +5140,7 @@
         <v>4.8438000000000002E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -5151,7 +5160,7 @@
         <v>17.239650000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -5171,7 +5180,7 @@
         <v>128.16399999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -5191,7 +5200,7 @@
         <v>8.0308799999999998</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -5211,7 +5220,7 @@
         <v>1.661626</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -5231,7 +5240,7 @@
         <v>0.51319999999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -5251,7 +5260,7 @@
         <v>3.942428</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -5271,7 +5280,7 @@
         <v>0.12759999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -5291,7 +5300,7 @@
         <v>1.153702E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5311,7 +5320,7 @@
         <v>47.747199999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5331,7 +5340,7 @@
         <v>2.560686E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5351,7 +5360,7 @@
         <v>7.0963399999999996</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5371,7 +5380,7 @@
         <v>1.271484E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5391,7 +5400,7 @@
         <v>7.0109199999999995E-4</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5411,7 +5420,7 @@
         <v>1.4127440000000001E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5431,7 +5440,7 @@
         <v>1.5225885999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -5451,7 +5460,7 @@
         <v>1.1208750000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -5471,7 +5480,7 @@
         <v>7.6403249999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -5491,7 +5500,7 @@
         <v>6.0775160000000002E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -5511,7 +5520,7 @@
         <v>1.3867302E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -5531,7 +5540,7 @@
         <v>3.6380400000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -5551,7 +5560,7 @@
         <v>15.696350000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -5571,7 +5580,7 @@
         <v>1.0838000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -5591,7 +5600,7 @@
         <v>1.37757E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -5611,7 +5620,7 @@
         <v>212.96700000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -5631,7 +5640,7 @@
         <v>3.3780500000000001E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -5651,7 +5660,7 @@
         <v>11.443910000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -5671,7 +5680,7 @@
         <v>0.49326799999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -5691,7 +5700,7 @@
         <v>2.3201720000000001E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -5711,7 +5720,7 @@
         <v>2.4702039999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -5731,7 +5740,7 @@
         <v>7.1237599999999999</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -5751,7 +5760,7 @@
         <v>6.8059999999999996E-4</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -5771,7 +5780,7 @@
         <v>5.30775E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -5791,7 +5800,7 @@
         <v>6.7161600000000004</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -5811,7 +5820,7 @@
         <v>1.7903100000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -5831,7 +5840,7 @@
         <v>3.0009000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -5851,7 +5860,7 @@
         <v>417.7407</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -5871,7 +5880,7 @@
         <v>0.39323999999999998</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -5891,7 +5900,7 @@
         <v>1.4822399999999999E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -5911,7 +5920,7 @@
         <v>5.3956650000000002E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -5931,7 +5940,7 @@
         <v>315.47359999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -5951,7 +5960,7 @@
         <v>0.52055499999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -5971,7 +5980,7 @@
         <v>0.37206</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -5991,7 +6000,7 @@
         <v>2.0747650000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -6011,7 +6020,7 @@
         <v>7.0968239999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -6031,7 +6040,7 @@
         <v>1.1976249999999999E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -6051,7 +6060,7 @@
         <v>50.757869999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -6071,7 +6080,7 @@
         <v>2.1848190000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -6091,7 +6100,7 @@
         <v>2.1737960000000001E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -6111,7 +6120,7 @@
         <v>5.2104200000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -6131,7 +6140,7 @@
         <v>209.17265</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -6151,7 +6160,7 @@
         <v>30.232800000000001</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -6171,7 +6180,7 @@
         <v>49.80256</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -6191,7 +6200,7 @@
         <v>21.082599999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -6211,7 +6220,7 @@
         <v>1.4213679999999997</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -6231,7 +6240,7 @@
         <v>3.6572900000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -6251,7 +6260,7 @@
         <v>74.09742</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -6271,7 +6280,7 @@
         <v>4.5683280000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -6291,7 +6300,7 @@
         <v>1.3498E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -6311,7 +6320,7 @@
         <v>1.418802E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -6331,7 +6340,7 @@
         <v>1.0152E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -6351,7 +6360,7 @@
         <v>603.38250000000005</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -6371,7 +6380,7 @@
         <v>43.776274999999998</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -6391,7 +6400,7 @@
         <v>90.041892000000004</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -6411,7 +6420,7 @@
         <v>2.2204E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -6431,7 +6440,7 @@
         <v>4.4246199999999998E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -6451,7 +6460,7 @@
         <v>259.767</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -6471,7 +6480,7 @@
         <v>822.37811999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -6491,7 +6500,7 @@
         <v>3.7819500000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -6511,7 +6520,7 @@
         <v>1.78508E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -6531,7 +6540,7 @@
         <v>2.0639340000000002</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -6551,7 +6560,7 @@
         <v>69.974625000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -6571,7 +6580,7 @@
         <v>267.55380000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -6591,7 +6600,7 @@
         <v>1.9642500000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -6611,7 +6620,7 @@
         <v>8.8979280000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -6631,7 +6640,7 @@
         <v>12.551539</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -6651,7 +6660,7 @@
         <v>10.820790000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -6671,7 +6680,7 @@
         <v>128.6292</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -6691,7 +6700,7 @@
         <v>1.1852819999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -6711,7 +6720,7 @@
         <v>16.693504000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -6731,7 +6740,7 @@
         <v>0.169068</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -6751,7 +6760,7 @@
         <v>5.6290884999999999E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -6771,7 +6780,7 @@
         <v>2.4252199999999999</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -6791,7 +6800,7 @@
         <v>54.942720000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -6811,7 +6820,7 @@
         <v>65.530240000000006</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -6831,7 +6840,7 @@
         <v>1.4722500000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -6851,7 +6860,7 @@
         <v>14.891847999999998</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -6871,7 +6880,7 @@
         <v>0.42649999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -6891,7 +6900,7 @@
         <v>6.2003760000000003</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -6911,7 +6920,7 @@
         <v>7.1871600000000004</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -6931,7 +6940,7 @@
         <v>11.123279999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -6951,7 +6960,7 @@
         <v>24.9269</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -6971,7 +6980,7 @@
         <v>0.55623500000000003</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -6991,7 +7000,7 @@
         <v>7.1645700000000003</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -7011,7 +7020,7 @@
         <v>4.3257289999999997E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -7031,7 +7040,7 @@
         <v>7.6692</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -7051,7 +7060,7 @@
         <v>6.3839250000000005</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -7071,7 +7080,7 @@
         <v>0.17297599999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -7091,7 +7100,7 @@
         <v>6.3971920000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -7111,7 +7120,7 @@
         <v>7.7014079999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -7131,7 +7140,7 @@
         <v>3.2194999999999999E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -7151,7 +7160,7 @@
         <v>8.0605E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -7171,7 +7180,7 @@
         <v>6.3034679999999996E-3</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -7191,7 +7200,7 @@
         <v>0.117504</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -7211,7 +7220,7 @@
         <v>43.384099999999997</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -7231,7 +7240,7 @@
         <v>325.95420000000001</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -7251,7 +7260,7 @@
         <v>2.1619820000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -7271,7 +7280,7 @@
         <v>7.7077</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -7291,7 +7300,7 @@
         <v>89.738759999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -7311,7 +7320,7 @@
         <v>5.0790000000000004E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -7331,7 +7340,7 @@
         <v>7.6562099999999997</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -7351,7 +7360,7 @@
         <v>9.8163839999999993</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -7371,7 +7380,7 @@
         <v>5.2816015000000001E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -7391,7 +7400,7 @@
         <v>5.2387519999999999</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -7411,7 +7420,7 @@
         <v>152.53998999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -7431,7 +7440,7 @@
         <v>11.0357</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -7451,7 +7460,7 @@
         <v>4.6059999999999997E-4</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -7471,7 +7480,7 @@
         <v>8.3372759999999992</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -7491,7 +7500,7 @@
         <v>1.7072999999999999E-3</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>131</v>
       </c>
@@ -7511,7 +7520,7 @@
         <v>0.13056614999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>132</v>
       </c>
@@ -7531,7 +7540,7 @@
         <v>3.8025449999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>133</v>
       </c>
@@ -7551,7 +7560,7 @@
         <v>4.8732000000000003E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>134</v>
       </c>
@@ -7571,7 +7580,7 @@
         <v>57.140065</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>135</v>
       </c>
@@ -7591,7 +7600,7 @@
         <v>60.429334000000004</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>136</v>
       </c>
@@ -7611,7 +7620,7 @@
         <v>1.3357600000000001E-3</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>137</v>
       </c>
@@ -7631,7 +7640,7 @@
         <v>46.957965000000002</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>138</v>
       </c>
@@ -7651,7 +7660,7 @@
         <v>30.761040000000001</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>139</v>
       </c>
@@ -7671,7 +7680,7 @@
         <v>5.0077709999999998E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>140</v>
       </c>
@@ -7691,7 +7700,7 @@
         <v>38.057985000000002</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>141</v>
       </c>
@@ -7711,7 +7720,7 @@
         <v>3.973053E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>142</v>
       </c>
@@ -7731,7 +7740,7 @@
         <v>2.397E-4</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>143</v>
       </c>
@@ -7751,7 +7760,7 @@
         <v>3.7502220000000001E-3</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>144</v>
       </c>
@@ -7771,7 +7780,7 @@
         <v>1.6390720000000001E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>145</v>
       </c>
@@ -7791,7 +7800,7 @@
         <v>20.776199999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>146</v>
       </c>
@@ -7811,7 +7820,7 @@
         <v>2.4372250000000002</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>147</v>
       </c>
@@ -7831,7 +7840,7 @@
         <v>154.811724</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>148</v>
       </c>
@@ -7851,7 +7860,7 @@
         <v>6.2941200000000003E-3</v>
       </c>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>149</v>
       </c>
@@ -7871,7 +7880,7 @@
         <v>34.732565999999998</v>
       </c>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>150</v>
       </c>
@@ -7891,7 +7900,7 @@
         <v>48.950738999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>151</v>
       </c>
@@ -7911,7 +7920,7 @@
         <v>23.238676000000002</v>
       </c>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>152</v>
       </c>
@@ -7931,7 +7940,7 @@
         <v>11.774324999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>153</v>
       </c>
@@ -7951,7 +7960,7 @@
         <v>0.32540400000000003</v>
       </c>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>154</v>
       </c>
@@ -7971,7 +7980,7 @@
         <v>7.8303279999999997</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>155</v>
       </c>
@@ -7991,7 +8000,7 @@
         <v>0.62020799999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>156</v>
       </c>
@@ -8011,7 +8020,7 @@
         <v>1.0340800000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>157</v>
       </c>
@@ -8031,7 +8040,7 @@
         <v>216.84537</v>
       </c>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>158</v>
       </c>
@@ -8051,7 +8060,7 @@
         <v>1.0862000000000001E-3</v>
       </c>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>159</v>
       </c>
@@ -8071,7 +8080,7 @@
         <v>21.072134999999999</v>
       </c>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>160</v>
       </c>
@@ -8091,7 +8100,7 @@
         <v>9.5175599999999996</v>
       </c>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>161</v>
       </c>
@@ -8111,7 +8120,7 @@
         <v>0.50561</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>162</v>
       </c>
@@ -8131,7 +8140,7 @@
         <v>9.7414020000000008</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>163</v>
       </c>
@@ -8151,7 +8160,7 @@
         <v>0.95293499999999998</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>164</v>
       </c>
@@ -8171,7 +8180,7 @@
         <v>1.2061199999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>165</v>
       </c>
@@ -8191,7 +8200,7 @@
         <v>12.279858000000001</v>
       </c>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>166</v>
       </c>
@@ -8211,7 +8220,7 @@
         <v>0.77393800000000001</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>167</v>
       </c>
@@ -8231,7 +8240,7 @@
         <v>0.38300000000000001</v>
       </c>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>168</v>
       </c>
@@ -8251,7 +8260,7 @@
         <v>6.9331499999999999E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>169</v>
       </c>
@@ -8271,7 +8280,7 @@
         <v>1.7394871999999999E-2</v>
       </c>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>170</v>
       </c>
@@ -8291,7 +8300,7 @@
         <v>4.4079999999999998E-4</v>
       </c>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>171</v>
       </c>
@@ -8311,7 +8320,7 @@
         <v>2.7296279999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>172</v>
       </c>
@@ -8331,7 +8340,7 @@
         <v>7.0120249999999999E-3</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>173</v>
       </c>
@@ -8351,7 +8360,7 @@
         <v>2.2606154999999999E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>174</v>
       </c>
@@ -8371,7 +8380,7 @@
         <v>48.379289999999997</v>
       </c>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>175</v>
       </c>
@@ -8391,7 +8400,7 @@
         <v>84.813000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>176</v>
       </c>
@@ -8411,7 +8420,7 @@
         <v>2.5535E-4</v>
       </c>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>177</v>
       </c>
@@ -8431,7 +8440,7 @@
         <v>1.490934E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>178</v>
       </c>
@@ -8451,7 +8460,7 @@
         <v>4.478396</v>
       </c>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>179</v>
       </c>
@@ -8471,7 +8480,7 @@
         <v>42.270625000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>180</v>
       </c>
@@ -8491,7 +8500,7 @@
         <v>79.537328000000002</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>181</v>
       </c>
@@ -8511,7 +8520,7 @@
         <v>7.8384149999999996E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>182</v>
       </c>
@@ -8531,7 +8540,7 @@
         <v>12.22479</v>
       </c>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>183</v>
       </c>
@@ -8551,7 +8560,7 @@
         <v>1.2104000000000001E-4</v>
       </c>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>184</v>
       </c>
@@ -8571,7 +8580,7 @@
         <v>1.5155000000000001</v>
       </c>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>185</v>
       </c>
@@ -8591,7 +8600,7 @@
         <v>6.2496000000000003E-4</v>
       </c>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>186</v>
       </c>
@@ -8611,7 +8620,7 @@
         <v>36.95776</v>
       </c>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>187</v>
       </c>
@@ -8631,7 +8640,7 @@
         <v>0.25624999999999998</v>
       </c>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>188</v>
       </c>
@@ -8651,7 +8660,7 @@
         <v>0.32190000000000002</v>
       </c>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>189</v>
       </c>
@@ -8671,7 +8680,7 @@
         <v>1.96794</v>
       </c>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>190</v>
       </c>
@@ -8691,7 +8700,7 @@
         <v>1.1614316E-2</v>
       </c>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>191</v>
       </c>
@@ -8711,7 +8720,7 @@
         <v>1.7972499999999999E-2</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>192</v>
       </c>
@@ -8731,7 +8740,7 @@
         <v>5.0549999999999991E-2</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>193</v>
       </c>
@@ -8751,7 +8760,7 @@
         <v>6.8634300000000002E-3</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>194</v>
       </c>
@@ -8771,7 +8780,7 @@
         <v>22.264050000000001</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>195</v>
       </c>
@@ -8791,7 +8800,7 @@
         <v>1.2914000000000001</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>196</v>
       </c>
@@ -8811,7 +8820,7 @@
         <v>2.9292731999999998E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>197</v>
       </c>
@@ -8831,7 +8840,7 @@
         <v>35.075620000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>198</v>
       </c>
@@ -8851,7 +8860,7 @@
         <v>9.2256</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>199</v>
       </c>
@@ -8871,7 +8880,7 @@
         <v>3.0639880000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>200</v>
       </c>
@@ -8891,7 +8900,7 @@
         <v>1.0155879999999999</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>201</v>
       </c>
@@ -8911,7 +8920,7 @@
         <v>0.100545</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="1">
         <v>202</v>
       </c>
@@ -8931,7 +8940,7 @@
         <v>1.85361</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="1">
         <v>203</v>
       </c>
@@ -8951,7 +8960,7 @@
         <v>3.9483209999999998E-2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="1">
         <v>204</v>
       </c>
@@ -8971,7 +8980,7 @@
         <v>6.2585249999999997</v>
       </c>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="1">
         <v>205</v>
       </c>
@@ -8991,7 +9000,7 @@
         <v>37.427529999999997</v>
       </c>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="1">
         <v>206</v>
       </c>
@@ -9011,7 +9020,7 @@
         <v>9.0414499999999995E-3</v>
       </c>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="1">
         <v>207</v>
       </c>
@@ -9031,7 +9040,7 @@
         <v>26.312639999999998</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="1">
         <v>208</v>
       </c>
@@ -9051,7 +9060,7 @@
         <v>4.6194199999999999E-3</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="1">
         <v>209</v>
       </c>
@@ -9071,7 +9080,7 @@
         <v>26.986260000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="1">
         <v>210</v>
       </c>
@@ -9091,7 +9100,7 @@
         <v>1.0282728E-2</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="1">
         <v>211</v>
       </c>
@@ -9111,7 +9120,7 @@
         <v>3.2375970000000005</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="1">
         <v>212</v>
       </c>
@@ -9131,7 +9140,7 @@
         <v>17.760736000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="1">
         <v>213</v>
       </c>
@@ -9151,7 +9160,7 @@
         <v>2.4326250000000001E-2</v>
       </c>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" s="1">
         <v>214</v>
       </c>
@@ -9171,7 +9180,7 @@
         <v>1.6779E-3</v>
       </c>
     </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" s="1">
         <v>215</v>
       </c>
@@ -9191,7 +9200,7 @@
         <v>1.300749E-2</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="1">
         <v>216</v>
       </c>
@@ -9211,7 +9220,7 @@
         <v>2.3454219999999998E-3</v>
       </c>
     </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" s="1">
         <v>217</v>
       </c>
@@ -9231,7 +9240,7 @@
         <v>3.8328289999999998</v>
       </c>
     </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" s="1">
         <v>218</v>
       </c>
@@ -9251,7 +9260,7 @@
         <v>1.5935010000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="1">
         <v>219</v>
       </c>
@@ -9271,7 +9280,7 @@
         <v>5.3673999999999996E-4</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="1">
         <v>220</v>
       </c>
@@ -9291,7 +9300,7 @@
         <v>1.5794374999999999E-2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="1">
         <v>221</v>
       </c>
@@ -9311,7 +9320,7 @@
         <v>3.4778864999999999E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="1">
         <v>222</v>
       </c>
@@ -9331,7 +9340,7 @@
         <v>15.036479999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="1">
         <v>223</v>
       </c>
@@ -9351,7 +9360,7 @@
         <v>4.6394999999999997E-4</v>
       </c>
     </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" s="1">
         <v>224</v>
       </c>
@@ -9371,7 +9380,7 @@
         <v>4.82571E-4</v>
       </c>
     </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" s="1">
         <v>225</v>
       </c>
@@ -9391,7 +9400,7 @@
         <v>85.982600000000005</v>
       </c>
     </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" s="1">
         <v>226</v>
       </c>
@@ -9411,7 +9420,7 @@
         <v>37.128892999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" s="1">
         <v>227</v>
       </c>
@@ -9431,7 +9440,7 @@
         <v>0.3024</v>
       </c>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="1">
         <v>228</v>
       </c>
@@ -9451,7 +9460,7 @@
         <v>0.91992099999999999</v>
       </c>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="1">
         <v>229</v>
       </c>
@@ -9471,7 +9480,7 @@
         <v>2.168836E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="1">
         <v>230</v>
       </c>
@@ -9491,7 +9500,7 @@
         <v>60.962850000000003</v>
       </c>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="1">
         <v>231</v>
       </c>
@@ -9511,7 +9520,7 @@
         <v>0.28892099999999998</v>
       </c>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="1">
         <v>232</v>
       </c>
@@ -9531,7 +9540,7 @@
         <v>4.8975299999999988</v>
       </c>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="1">
         <v>233</v>
       </c>
@@ -9551,7 +9560,7 @@
         <v>46.297159999999998</v>
       </c>
     </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" s="1">
         <v>234</v>
       </c>
@@ -9571,7 +9580,7 @@
         <v>0.78652</v>
       </c>
     </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" s="1">
         <v>235</v>
       </c>
@@ -9591,7 +9600,7 @@
         <v>1.2304919999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="1">
         <v>236</v>
       </c>
@@ -9611,7 +9620,7 @@
         <v>76.066500000000005</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="1">
         <v>237</v>
       </c>
@@ -9631,7 +9640,7 @@
         <v>3.90345E-2</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="1">
         <v>238</v>
       </c>
@@ -9651,7 +9660,7 @@
         <v>7.9800099999999992E-3</v>
       </c>
     </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" s="1">
         <v>239</v>
       </c>
@@ -9671,7 +9680,7 @@
         <v>24.923660000000002</v>
       </c>
     </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" s="1">
         <v>240</v>
       </c>
@@ -9691,7 +9700,7 @@
         <v>4.6870000000000002E-2</v>
       </c>
     </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" s="1">
         <v>241</v>
       </c>
@@ -9711,7 +9720,7 @@
         <v>4.04976</v>
       </c>
     </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" s="1">
         <v>242</v>
       </c>
@@ -9731,7 +9740,7 @@
         <v>1.523225E-3</v>
       </c>
     </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" s="1">
         <v>243</v>
       </c>
@@ -9751,7 +9760,7 @@
         <v>4.2858000000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="1">
         <v>244</v>
       </c>
@@ -9771,7 +9780,7 @@
         <v>0.82466499999999998</v>
       </c>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="1">
         <v>245</v>
       </c>
@@ -9791,7 +9800,7 @@
         <v>4.8052800000000003E-3</v>
       </c>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="1">
         <v>246</v>
       </c>
@@ -9811,7 +9820,7 @@
         <v>2.235233</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="1">
         <v>247</v>
       </c>
@@ -9831,7 +9840,7 @@
         <v>0.69587200000000005</v>
       </c>
     </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" s="1">
         <v>248</v>
       </c>
@@ -9851,7 +9860,7 @@
         <v>1.468774</v>
       </c>
     </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" s="1">
         <v>249</v>
       </c>
@@ -9871,7 +9880,7 @@
         <v>1.0357600000000001E-7</v>
       </c>
     </row>
-    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" s="1">
         <v>250</v>
       </c>
@@ -9891,7 +9900,7 @@
         <v>4.1955840000000001E-2</v>
       </c>
     </row>
-    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" s="1">
         <v>251</v>
       </c>
@@ -9911,7 +9920,7 @@
         <v>0.16439999999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="1">
         <v>252</v>
       </c>
@@ -9931,7 +9940,7 @@
         <v>1.834854</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="1">
         <v>253</v>
       </c>
@@ -9951,7 +9960,7 @@
         <v>5.6016599999999996E-3</v>
       </c>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="1">
         <v>254</v>
       </c>
@@ -9971,7 +9980,7 @@
         <v>6.6173999999999996E-4</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="1">
         <v>255</v>
       </c>
@@ -9991,7 +10000,7 @@
         <v>4.6510299999999997E-2</v>
       </c>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="1">
         <v>256</v>
       </c>
@@ -10011,7 +10020,7 @@
         <v>2.4150860000000001</v>
       </c>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="1">
         <v>257</v>
       </c>
@@ -10031,7 +10040,7 @@
         <v>4.3991219999999998E-2</v>
       </c>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="1">
         <v>258</v>
       </c>
@@ -10051,7 +10060,7 @@
         <v>7.3689000000000003E-3</v>
       </c>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="1">
         <v>259</v>
       </c>
@@ -10071,7 +10080,7 @@
         <v>3.70804</v>
       </c>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="1">
         <v>260</v>
       </c>
@@ -10091,7 +10100,7 @@
         <v>1.5922080000000002E-2</v>
       </c>
     </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" s="1">
         <v>261</v>
       </c>
@@ -10111,7 +10120,7 @@
         <v>6.8316200000000001E-3</v>
       </c>
     </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" s="1">
         <v>262</v>
       </c>
@@ -10131,7 +10140,7 @@
         <v>0.148456</v>
       </c>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="1">
         <v>263</v>
       </c>
@@ -10151,7 +10160,7 @@
         <v>6.9294799999999998E-4</v>
       </c>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="1">
         <v>264</v>
       </c>
@@ -10171,7 +10180,7 @@
         <v>4.4839919999999998</v>
       </c>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="1">
         <v>265</v>
       </c>
@@ -10191,7 +10200,7 @@
         <v>2.3621780000000001</v>
       </c>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="1">
         <v>266</v>
       </c>
@@ -10211,7 +10220,7 @@
         <v>0.46137</v>
       </c>
     </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" s="1">
         <v>267</v>
       </c>
@@ -10231,7 +10240,7 @@
         <v>1.795536</v>
       </c>
     </row>
-    <row r="269" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" s="1">
         <v>268</v>
       </c>
@@ -10251,7 +10260,7 @@
         <v>2.8451119999999999</v>
       </c>
     </row>
-    <row r="270" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" s="1">
         <v>269</v>
       </c>
@@ -10271,7 +10280,7 @@
         <v>0.89450399999999997</v>
       </c>
     </row>
-    <row r="271" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" s="1">
         <v>270</v>
       </c>
@@ -10291,7 +10300,7 @@
         <v>4.9462200000000003</v>
       </c>
     </row>
-    <row r="272" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" s="1">
         <v>271</v>
       </c>
@@ -10311,7 +10320,7 @@
         <v>5.2200000000000002E-5</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" s="1">
         <v>272</v>
       </c>
@@ -10331,7 +10340,7 @@
         <v>2.1339039999999998</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" s="1">
         <v>273</v>
       </c>
@@ -10351,7 +10360,7 @@
         <v>1.8307911999999999E-2</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" s="1">
         <v>274</v>
       </c>
@@ -10371,7 +10380,7 @@
         <v>2.209158</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" s="1">
         <v>275</v>
       </c>
@@ -10391,7 +10400,7 @@
         <v>15.806699999999999</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" s="1">
         <v>276</v>
       </c>
@@ -10411,7 +10420,7 @@
         <v>6.7133999999999998E-4</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" s="1">
         <v>277</v>
       </c>
@@ -10431,7 +10440,7 @@
         <v>2.99454E-3</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" s="1">
         <v>278</v>
       </c>
@@ -10451,7 +10460,7 @@
         <v>0.32807347999999997</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="1">
         <v>279</v>
       </c>
@@ -10471,7 +10480,7 @@
         <v>1.1838619999999999E-3</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" s="1">
         <v>280</v>
       </c>
@@ -10491,7 +10500,7 @@
         <v>13.596385</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" s="1">
         <v>281</v>
       </c>
@@ -10511,7 +10520,7 @@
         <v>32.3645</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="1">
         <v>282</v>
       </c>
@@ -10531,7 +10540,7 @@
         <v>2.720478</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="1">
         <v>283</v>
       </c>
@@ -10551,7 +10560,7 @@
         <v>5.8647539999999998E-2</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="1">
         <v>284</v>
       </c>
@@ -10571,7 +10580,7 @@
         <v>2.8512399999999993</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="1">
         <v>285</v>
       </c>
@@ -10591,7 +10600,7 @@
         <v>1.0959999999999999E-4</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="1">
         <v>286</v>
       </c>
@@ -10611,7 +10620,7 @@
         <v>1.713768</v>
       </c>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" s="1">
         <v>287</v>
       </c>
@@ -10631,7 +10640,7 @@
         <v>1.716988</v>
       </c>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" s="1">
         <v>288</v>
       </c>
@@ -10651,7 +10660,7 @@
         <v>163.28812500000001</v>
       </c>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" s="1">
         <v>289</v>
       </c>
@@ -10671,7 +10680,7 @@
         <v>15.016145</v>
       </c>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" s="1">
         <v>290</v>
       </c>
@@ -10691,7 +10700,7 @@
         <v>6.18288E-3</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="1">
         <v>291</v>
       </c>
@@ -10711,7 +10720,7 @@
         <v>7.3455000000000005E-4</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="1">
         <v>292</v>
       </c>
@@ -10731,7 +10740,7 @@
         <v>50.538400000000003</v>
       </c>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="1">
         <v>293</v>
       </c>
@@ -10751,7 +10760,7 @@
         <v>1.961738</v>
       </c>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" s="1">
         <v>294</v>
       </c>
@@ -10771,7 +10780,7 @@
         <v>0.58610300000000004</v>
       </c>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" s="1">
         <v>295</v>
       </c>
@@ -10791,7 +10800,7 @@
         <v>1.264788</v>
       </c>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="1">
         <v>296</v>
       </c>
@@ -10811,7 +10820,7 @@
         <v>7.9140600000000005E-3</v>
       </c>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="1">
         <v>297</v>
       </c>
@@ -10831,7 +10840,7 @@
         <v>2.5011299999999998E-3</v>
       </c>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="1">
         <v>298</v>
       </c>
@@ -10851,7 +10860,7 @@
         <v>1.1174643999999999E-2</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="1">
         <v>299</v>
       </c>
@@ -10871,7 +10880,7 @@
         <v>5.3804999999999999E-4</v>
       </c>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" s="1">
         <v>300</v>
       </c>
@@ -10891,7 +10900,7 @@
         <v>1.1134949999999999</v>
       </c>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" s="1">
         <v>301</v>
       </c>
@@ -10911,7 +10920,7 @@
         <v>1.04363E-3</v>
       </c>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" s="1">
         <v>302</v>
       </c>
@@ -10931,7 +10940,7 @@
         <v>3.9148200000000002</v>
       </c>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" s="1">
         <v>303</v>
       </c>
@@ -10951,7 +10960,7 @@
         <v>11.52515</v>
       </c>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="1">
         <v>304</v>
       </c>
@@ -10971,7 +10980,7 @@
         <v>11.235329999999999</v>
       </c>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="1">
         <v>305</v>
       </c>
@@ -10991,7 +11000,7 @@
         <v>0.23773920000000001</v>
       </c>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="1">
         <v>306</v>
       </c>
@@ -11011,7 +11020,7 @@
         <v>2.8016E-3</v>
       </c>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="1">
         <v>307</v>
       </c>
@@ -11031,7 +11040,7 @@
         <v>0.71680999999999995</v>
       </c>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="1">
         <v>308</v>
       </c>
@@ -11051,7 +11060,7 @@
         <v>3.3344999999999998E-3</v>
       </c>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="1">
         <v>309</v>
       </c>
@@ -11071,7 +11080,7 @@
         <v>58.688040000000001</v>
       </c>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="1">
         <v>310</v>
       </c>
@@ -11091,7 +11100,7 @@
         <v>59.505249999999997</v>
       </c>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="1">
         <v>311</v>
       </c>
@@ -11111,7 +11120,7 @@
         <v>3.0791940000000002</v>
       </c>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="1">
         <v>312</v>
       </c>
@@ -11131,7 +11140,7 @@
         <v>7.9911360000000001E-2</v>
       </c>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="1">
         <v>313</v>
       </c>
@@ -11151,7 +11160,7 @@
         <v>1.2331E-3</v>
       </c>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="1">
         <v>314</v>
       </c>
@@ -11171,7 +11180,7 @@
         <v>1.4371210000000001</v>
       </c>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316" s="1">
         <v>315</v>
       </c>
@@ -11191,7 +11200,7 @@
         <v>101.67832</v>
       </c>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317" s="1">
         <v>316</v>
       </c>
@@ -11211,7 +11220,7 @@
         <v>73.525300000000001</v>
       </c>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="1">
         <v>317</v>
       </c>
@@ -11231,7 +11240,7 @@
         <v>0.54478199999999999</v>
       </c>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="1">
         <v>318</v>
       </c>
@@ -11251,7 +11260,7 @@
         <v>4.71014</v>
       </c>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="1">
         <v>319</v>
       </c>
@@ -11271,7 +11280,7 @@
         <v>1.572805E-2</v>
       </c>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="1">
         <v>320</v>
       </c>
@@ -11291,7 +11300,7 @@
         <v>5.6563999999999996E-4</v>
       </c>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="1">
         <v>321</v>
       </c>
@@ -11311,7 +11320,7 @@
         <v>1.49832E-3</v>
       </c>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="1">
         <v>322</v>
       </c>
@@ -11331,7 +11340,7 @@
         <v>3.8172990000000001E-3</v>
       </c>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="1">
         <v>323</v>
       </c>
@@ -11351,7 +11360,7 @@
         <v>0.58623999999999998</v>
       </c>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325" s="1">
         <v>324</v>
       </c>
@@ -11371,7 +11380,7 @@
         <v>54.286799999999999</v>
       </c>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326" s="1">
         <v>325</v>
       </c>
@@ -11391,7 +11400,7 @@
         <v>1.10575E-3</v>
       </c>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327" s="1">
         <v>326</v>
       </c>
@@ -11411,7 +11420,7 @@
         <v>3.1501800000000002</v>
       </c>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328" s="1">
         <v>327</v>
       </c>
@@ -11431,7 +11440,7 @@
         <v>2.3115079999999999</v>
       </c>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="1">
         <v>328</v>
       </c>
@@ -11451,7 +11460,7 @@
         <v>0.97124999999999995</v>
       </c>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="1">
         <v>329</v>
       </c>
@@ -11471,7 +11480,7 @@
         <v>9.1348319999999994</v>
       </c>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="1">
         <v>330</v>
       </c>
@@ -11491,7 +11500,7 @@
         <v>3.0134159999999999</v>
       </c>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="1">
         <v>331</v>
       </c>
@@ -11511,7 +11520,7 @@
         <v>25.414400000000001</v>
       </c>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="1">
         <v>332</v>
       </c>
@@ -11531,7 +11540,7 @@
         <v>31.665700000000001</v>
       </c>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334" s="1">
         <v>333</v>
       </c>
@@ -11551,7 +11560,7 @@
         <v>16.305289999999999</v>
       </c>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335" s="1">
         <v>334</v>
       </c>
@@ -11571,7 +11580,7 @@
         <v>1.28905</v>
       </c>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336" s="1">
         <v>335</v>
       </c>
@@ -11591,7 +11600,7 @@
         <v>1.0496729999999999E-2</v>
       </c>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337" s="1">
         <v>336</v>
       </c>
@@ -11611,7 +11620,7 @@
         <v>115.40785</v>
       </c>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="1">
         <v>337</v>
       </c>
@@ -11631,7 +11640,7 @@
         <v>2.0925440000000002</v>
       </c>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339" s="1">
         <v>338</v>
       </c>
@@ -11651,7 +11660,7 @@
         <v>12.527372</v>
       </c>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340" s="1">
         <v>339</v>
       </c>
@@ -11671,7 +11680,7 @@
         <v>9.1373359999999995</v>
       </c>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341" s="1">
         <v>340</v>
       </c>
@@ -11691,7 +11700,7 @@
         <v>7.3260000000000003E-4</v>
       </c>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="1">
         <v>341</v>
       </c>
@@ -11711,7 +11720,7 @@
         <v>2.775E-5</v>
       </c>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="1">
         <v>342</v>
       </c>
@@ -11731,7 +11740,7 @@
         <v>3.6307499999999999E-3</v>
       </c>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="1">
         <v>343</v>
       </c>
@@ -11751,7 +11760,7 @@
         <v>1.115318E-2</v>
       </c>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="1">
         <v>344</v>
       </c>
@@ -11771,7 +11780,7 @@
         <v>0.909636</v>
       </c>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="1">
         <v>345</v>
       </c>
@@ -11791,7 +11800,7 @@
         <v>31.441949999999999</v>
       </c>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="1">
         <v>346</v>
       </c>
@@ -11811,7 +11820,7 @@
         <v>1.4971840000000001</v>
       </c>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="1">
         <v>347</v>
       </c>
@@ -11831,7 +11840,7 @@
         <v>4.7457279999999997</v>
       </c>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="1">
         <v>348</v>
       </c>
@@ -11851,7 +11860,7 @@
         <v>21.062249999999999</v>
       </c>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350" s="1">
         <v>349</v>
       </c>
@@ -11871,7 +11880,7 @@
         <v>6.9460000000000002E-5</v>
       </c>
     </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351" s="1">
         <v>350</v>
       </c>
@@ -11891,7 +11900,7 @@
         <v>2.7340639999999999E-2</v>
       </c>
     </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352" s="1">
         <v>351</v>
       </c>
@@ -11911,7 +11920,7 @@
         <v>14.796799999999999</v>
       </c>
     </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353" s="1">
         <v>352</v>
       </c>
@@ -11931,7 +11940,7 @@
         <v>1.398182</v>
       </c>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="1">
         <v>353</v>
       </c>
@@ -11951,7 +11960,7 @@
         <v>2.3928690000000001</v>
       </c>
     </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355" s="1">
         <v>354</v>
       </c>
@@ -11971,7 +11980,7 @@
         <v>55.146935999999997</v>
       </c>
     </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356" s="1">
         <v>355</v>
       </c>
@@ -11991,7 +12000,7 @@
         <v>0.90944999999999998</v>
       </c>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="1">
         <v>356</v>
       </c>
@@ -12011,7 +12020,7 @@
         <v>0.36427799999999999</v>
       </c>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="1">
         <v>357</v>
       </c>
@@ -12031,7 +12040,7 @@
         <v>2.9449000000000001</v>
       </c>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="1">
         <v>358</v>
       </c>
@@ -12051,7 +12060,7 @@
         <v>3.9209400000000004E-3</v>
       </c>
     </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360" s="1">
         <v>359</v>
       </c>
@@ -12071,7 +12080,7 @@
         <v>0.46992</v>
       </c>
     </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361" s="1">
         <v>360</v>
       </c>
@@ -12091,7 +12100,7 @@
         <v>9.3284100000000005E-3</v>
       </c>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="1">
         <v>361</v>
       </c>
@@ -12111,7 +12120,7 @@
         <v>0.93015000000000003</v>
       </c>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="1">
         <v>362</v>
       </c>
@@ -12131,7 +12140,7 @@
         <v>0.7409</v>
       </c>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="1">
         <v>363</v>
       </c>
@@ -12151,7 +12160,7 @@
         <v>1.0166820000000001</v>
       </c>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="1">
         <v>364</v>
       </c>
@@ -12171,7 +12180,7 @@
         <v>0.10124</v>
       </c>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="1">
         <v>365</v>
       </c>
@@ -12191,7 +12200,7 @@
         <v>21.0181</v>
       </c>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="1">
         <v>366</v>
       </c>
@@ -12211,7 +12220,7 @@
         <v>2.0873325000000002E-2</v>
       </c>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="1">
         <v>367</v>
       </c>
@@ -12231,7 +12240,7 @@
         <v>0.368288</v>
       </c>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="1">
         <v>368</v>
       </c>
@@ -12251,7 +12260,7 @@
         <v>82.523769999999999</v>
       </c>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="1">
         <v>369</v>
       </c>
@@ -12271,7 +12280,7 @@
         <v>8.0532199999999998E-3</v>
       </c>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="1">
         <v>370</v>
       </c>
@@ -12291,7 +12300,7 @@
         <v>1.1698511999999999E-2</v>
       </c>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="1">
         <v>371</v>
       </c>
@@ -12311,7 +12320,7 @@
         <v>2.4926159999999999</v>
       </c>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="1">
         <v>372</v>
       </c>
@@ -12331,7 +12340,7 @@
         <v>1.8648829999999999E-3</v>
       </c>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="1">
         <v>373</v>
       </c>
@@ -12351,7 +12360,7 @@
         <v>1.0963049999999999E-3</v>
       </c>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="1">
         <v>374</v>
       </c>
@@ -12371,7 +12380,7 @@
         <v>2.2957749999999999E-3</v>
       </c>
     </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A376" s="1">
         <v>375</v>
       </c>
@@ -12391,7 +12400,7 @@
         <v>17.054226</v>
       </c>
     </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A377" s="1">
         <v>376</v>
       </c>
@@ -12411,7 +12420,7 @@
         <v>3.0337530000000004</v>
       </c>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="1">
         <v>377</v>
       </c>
@@ -12431,7 +12440,7 @@
         <v>10.353406</v>
       </c>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="1">
         <v>378</v>
       </c>
@@ -12451,7 +12460,7 @@
         <v>2.1648540000000001</v>
       </c>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="1">
         <v>379</v>
       </c>
@@ -12471,7 +12480,7 @@
         <v>20.709</v>
       </c>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="1">
         <v>380</v>
       </c>
@@ -12491,7 +12500,7 @@
         <v>3.0613100000000002</v>
       </c>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="1">
         <v>381</v>
       </c>
@@ -12511,7 +12520,7 @@
         <v>1.4862110000000002</v>
       </c>
     </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A383" s="1">
         <v>382</v>
       </c>
@@ -12531,7 +12540,7 @@
         <v>1.08724E-4</v>
       </c>
     </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A384" s="1">
         <v>383</v>
       </c>
@@ -12551,7 +12560,7 @@
         <v>4.2257069999999999</v>
       </c>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="1">
         <v>384</v>
       </c>
@@ -12571,7 +12580,7 @@
         <v>0.16589799999999999</v>
       </c>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="1">
         <v>385</v>
       </c>
@@ -12591,7 +12600,7 @@
         <v>2.6039999999999999E-4</v>
       </c>
     </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A387" s="1">
         <v>386</v>
       </c>
@@ -12611,7 +12620,7 @@
         <v>15.022320000000001</v>
       </c>
     </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A388" s="1">
         <v>387</v>
       </c>
@@ -12631,7 +12640,7 @@
         <v>1.443929E-2</v>
       </c>
     </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A389" s="1">
         <v>388</v>
       </c>
@@ -12651,7 +12660,7 @@
         <v>6.7501680000000004</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A390" s="1">
         <v>389</v>
       </c>
@@ -12671,7 +12680,7 @@
         <v>0.32291999999999998</v>
       </c>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="1">
         <v>390</v>
       </c>
@@ -12691,7 +12700,7 @@
         <v>6.229966E-2</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="1">
         <v>391</v>
       </c>
@@ -12711,7 +12720,7 @@
         <v>2.6511200000000001</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="1">
         <v>392</v>
       </c>
@@ -12731,7 +12740,7 @@
         <v>4.4271500000000004E-3</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A394" s="1">
         <v>393</v>
       </c>
@@ -12751,7 +12760,7 @@
         <v>4.8278999999999996</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A395" s="1">
         <v>394</v>
       </c>
@@ -12771,7 +12780,7 @@
         <v>15.476430000000001</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="1">
         <v>395</v>
       </c>
@@ -12791,7 +12800,7 @@
         <v>9.6466E-3</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="1">
         <v>396</v>
       </c>
@@ -12811,7 +12820,7 @@
         <v>27.932189999999999</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="1">
         <v>397</v>
       </c>
@@ -12831,7 +12840,7 @@
         <v>0.185832</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="1">
         <v>398</v>
       </c>
@@ -12851,7 +12860,7 @@
         <v>4.7750190000000001E-3</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A400" s="1">
         <v>399</v>
       </c>
@@ -12871,7 +12880,7 @@
         <v>41.031765</v>
       </c>
     </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A401" s="1">
         <v>400</v>
       </c>
@@ -12891,7 +12900,7 @@
         <v>2.0332679999999999E-2</v>
       </c>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="1">
         <v>401</v>
       </c>
@@ -12911,7 +12920,7 @@
         <v>24.810856000000001</v>
       </c>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="1">
         <v>402</v>
       </c>
@@ -12931,7 +12940,7 @@
         <v>1.1375</v>
       </c>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="1">
         <v>403</v>
       </c>
@@ -12951,7 +12960,7 @@
         <v>3.1149999999999998E-5</v>
       </c>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="1">
         <v>404</v>
       </c>
@@ -12971,7 +12980,7 @@
         <v>3.42788</v>
       </c>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="1">
         <v>405</v>
       </c>
@@ -12991,7 +13000,7 @@
         <v>3.7989999999999999</v>
       </c>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="1">
         <v>406</v>
       </c>
@@ -13011,7 +13020,7 @@
         <v>1.7560950000000001E-3</v>
       </c>
     </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A408" s="1">
         <v>407</v>
       </c>
@@ -13031,7 +13040,7 @@
         <v>15.3644</v>
       </c>
     </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A409" s="1">
         <v>408</v>
       </c>
@@ -13051,7 +13060,7 @@
         <v>26.901499999999999</v>
       </c>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="1">
         <v>409</v>
       </c>
@@ -13071,7 +13080,7 @@
         <v>6.3418900000000002</v>
       </c>
     </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A411" s="1">
         <v>410</v>
       </c>
@@ -13091,7 +13100,7 @@
         <v>3.6691675E-2</v>
       </c>
     </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A412" s="1">
         <v>411</v>
       </c>
@@ -13111,7 +13120,7 @@
         <v>1.1470320000000001E-2</v>
       </c>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="1">
         <v>412</v>
       </c>
@@ -13131,7 +13140,7 @@
         <v>3.5069699999999999</v>
       </c>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="1">
         <v>413</v>
       </c>
@@ -13151,7 +13160,7 @@
         <v>0.15726965000000001</v>
       </c>
     </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A415" s="1">
         <v>414</v>
       </c>
@@ -13171,7 +13180,7 @@
         <v>4.3280599999999998</v>
       </c>
     </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A416" s="1">
         <v>415</v>
       </c>
@@ -13191,7 +13200,7 @@
         <v>0.30744700000000003</v>
       </c>
     </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A417" s="1">
         <v>416</v>
       </c>
@@ -13211,7 +13220,7 @@
         <v>0.77131412499999996</v>
       </c>
     </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A418" s="1">
         <v>417</v>
       </c>
@@ -13231,7 +13240,7 @@
         <v>7.8825599999999998</v>
       </c>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="1">
         <v>418</v>
       </c>
@@ -13251,7 +13260,7 @@
         <v>1.709946</v>
       </c>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="1">
         <v>419</v>
       </c>
@@ -13271,7 +13280,7 @@
         <v>0.19239999999999999</v>
       </c>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="1">
         <v>420</v>
       </c>
@@ -13291,7 +13300,7 @@
         <v>270.85849999999999</v>
       </c>
     </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A422" s="1">
         <v>421</v>
       </c>
@@ -13311,7 +13320,7 @@
         <v>0.30570399999999998</v>
       </c>
     </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A423" s="1">
         <v>422</v>
       </c>
@@ -13331,7 +13340,7 @@
         <v>2.1549999999999999E-5</v>
       </c>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="1">
         <v>423</v>
       </c>
@@ -13351,7 +13360,7 @@
         <v>30.368773999999998</v>
       </c>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="1">
         <v>424</v>
       </c>
@@ -13371,7 +13380,7 @@
         <v>2.4243049999999999E-2</v>
       </c>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="1">
         <v>425</v>
       </c>
@@ -13391,7 +13400,7 @@
         <v>6.8716639999999996E-2</v>
       </c>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="1">
         <v>426</v>
       </c>
@@ -13411,7 +13420,7 @@
         <v>0.41411500000000001</v>
       </c>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="1">
         <v>427</v>
       </c>
@@ -13431,7 +13440,7 @@
         <v>6.5735999999999998E-3</v>
       </c>
     </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A429" s="1">
         <v>428</v>
       </c>
@@ -13451,7 +13460,7 @@
         <v>2.9172149999999999E-3</v>
       </c>
     </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A430" s="1">
         <v>429</v>
       </c>
@@ -13471,7 +13480,7 @@
         <v>8.9212200000000005E-3</v>
       </c>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="1">
         <v>430</v>
       </c>
@@ -13491,7 +13500,7 @@
         <v>4.209975</v>
       </c>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="1">
         <v>431</v>
       </c>
@@ -13511,7 +13520,7 @@
         <v>1.1818944E-2</v>
       </c>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="1">
         <v>432</v>
       </c>
@@ -13531,7 +13540,7 @@
         <v>2.6294499999999998</v>
       </c>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="1">
         <v>433</v>
       </c>
@@ -13551,7 +13560,7 @@
         <v>54.55744</v>
       </c>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="1">
         <v>434</v>
       </c>
@@ -13571,7 +13580,7 @@
         <v>0.60760000000000003</v>
       </c>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="1">
         <v>435</v>
       </c>
@@ -13591,7 +13600,7 @@
         <v>3.9493000000000002E-3</v>
       </c>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="1">
         <v>436</v>
       </c>
@@ -13611,7 +13620,7 @@
         <v>16.411608000000001</v>
       </c>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="1">
         <v>437</v>
       </c>
@@ -13631,7 +13640,7 @@
         <v>6.8750000000000006E-2</v>
       </c>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="1">
         <v>438</v>
       </c>
@@ -13651,7 +13660,7 @@
         <v>6.0978150000000002E-2</v>
       </c>
     </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A440" s="1">
         <v>439</v>
       </c>
@@ -13671,7 +13680,7 @@
         <v>16.353680000000001</v>
       </c>
     </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A441" s="1">
         <v>440</v>
       </c>
@@ -13691,7 +13700,7 @@
         <v>97.711200000000005</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A442" s="1">
         <v>441</v>
       </c>
@@ -13711,7 +13720,7 @@
         <v>0.33645039999999998</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A443" s="1">
         <v>442</v>
       </c>
@@ -13731,7 +13740,7 @@
         <v>9.8728499999999979</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="1">
         <v>443</v>
       </c>
@@ -13751,7 +13760,7 @@
         <v>44.729480000000002</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="1">
         <v>444</v>
       </c>
@@ -13771,7 +13780,7 @@
         <v>3.6930299999999999E-3</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="1">
         <v>445</v>
       </c>
@@ -13791,7 +13800,7 @@
         <v>16.970549999999999</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A447" s="1">
         <v>446</v>
       </c>
@@ -13811,7 +13820,7 @@
         <v>2.3653279999999999</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A448" s="1">
         <v>447</v>
       </c>
@@ -13831,7 +13840,7 @@
         <v>43.440474000000002</v>
       </c>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="1">
         <v>448</v>
       </c>
@@ -13851,7 +13860,7 @@
         <v>4.007165E-3</v>
       </c>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="1">
         <v>449</v>
       </c>
@@ -13871,7 +13880,7 @@
         <v>0.46178399999999997</v>
       </c>
     </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A451" s="1">
         <v>450</v>
       </c>
@@ -13891,7 +13900,7 @@
         <v>1.6698800000000001E-3</v>
       </c>
     </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A452" s="1">
         <v>451</v>
       </c>
@@ -13911,7 +13920,7 @@
         <v>31.00854</v>
       </c>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="1">
         <v>452</v>
       </c>
@@ -13931,7 +13940,7 @@
         <v>6.2536299999999996E-3</v>
       </c>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="1">
         <v>453</v>
       </c>
@@ -13951,7 +13960,7 @@
         <v>16.784479999999999</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="1">
         <v>454</v>
       </c>
@@ -13971,7 +13980,7 @@
         <v>141.00484</v>
       </c>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="1">
         <v>455</v>
       </c>
@@ -13991,7 +14000,7 @@
         <v>2.48E-5</v>
       </c>
     </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A457" s="1">
         <v>456</v>
       </c>
@@ -14011,7 +14020,7 @@
         <v>2.8887616000000001E-2</v>
       </c>
     </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A458" s="1">
         <v>457</v>
       </c>
@@ -14031,7 +14040,7 @@
         <v>0.518814</v>
       </c>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="1">
         <v>458</v>
       </c>
@@ -14051,7 +14060,7 @@
         <v>0.87561</v>
       </c>
     </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A460" s="1">
         <v>459</v>
       </c>
@@ -14071,7 +14080,7 @@
         <v>0.92840400000000001</v>
       </c>
     </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A461" s="1">
         <v>460</v>
       </c>
@@ -14091,7 +14100,7 @@
         <v>1.386983E-2</v>
       </c>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="1">
         <v>461</v>
       </c>
@@ -14111,7 +14120,7 @@
         <v>6.2869099999999998</v>
       </c>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="1">
         <v>462</v>
       </c>
@@ -14131,7 +14140,7 @@
         <v>0.64183199999999996</v>
       </c>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="1">
         <v>463</v>
       </c>
@@ -14151,7 +14160,7 @@
         <v>1.9041440000000001</v>
       </c>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="1">
         <v>464</v>
       </c>
@@ -14171,7 +14180,7 @@
         <v>17.297495999999999</v>
       </c>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="1">
         <v>465</v>
       </c>
@@ -14191,7 +14200,7 @@
         <v>207.13612499999999</v>
       </c>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="1">
         <v>466</v>
       </c>
@@ -14211,7 +14220,7 @@
         <v>1.79375</v>
       </c>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="1">
         <v>467</v>
       </c>
@@ -14231,7 +14240,7 @@
         <v>0.30716074999999998</v>
       </c>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="1">
         <v>468</v>
       </c>
@@ -14251,7 +14260,7 @@
         <v>4.6706860000000003E-2</v>
       </c>
     </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A470" s="1">
         <v>469</v>
       </c>
@@ -14271,7 +14280,7 @@
         <v>3.3768699999999998</v>
       </c>
     </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A471" s="1">
         <v>470</v>
       </c>
@@ -14291,7 +14300,7 @@
         <v>6.335942E-2</v>
       </c>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="1">
         <v>471</v>
       </c>
@@ -14311,7 +14320,7 @@
         <v>4.8113589999999986</v>
       </c>
     </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A473" s="1">
         <v>472</v>
       </c>
@@ -14331,7 +14340,7 @@
         <v>1.83647</v>
       </c>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="1">
         <v>473</v>
       </c>
@@ -14351,7 +14360,7 @@
         <v>10.722899999999999</v>
       </c>
     </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A475" s="1">
         <v>474</v>
       </c>
@@ -14371,7 +14380,7 @@
         <v>1.570624</v>
       </c>
     </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A476" s="1">
         <v>475</v>
       </c>
@@ -14391,7 +14400,7 @@
         <v>2.8115850000000001E-2</v>
       </c>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="1">
         <v>476</v>
       </c>
@@ -14411,7 +14420,7 @@
         <v>2.1882659999999999E-3</v>
       </c>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="1">
         <v>477</v>
       </c>
@@ -14431,7 +14440,7 @@
         <v>1.2941499999999999</v>
       </c>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="1">
         <v>478</v>
       </c>
@@ -14451,7 +14460,7 @@
         <v>3.5075159999999999</v>
       </c>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="1">
         <v>479</v>
       </c>
@@ -14471,7 +14480,7 @@
         <v>7.4082480000000004</v>
       </c>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="1">
         <v>480</v>
       </c>
@@ -14491,7 +14500,7 @@
         <v>3.0420799999999999</v>
       </c>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="1">
         <v>481</v>
       </c>
@@ -14511,7 +14520,7 @@
         <v>6.0311999999999996E-4</v>
       </c>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="1">
         <v>482</v>
       </c>
@@ -14531,7 +14540,7 @@
         <v>5.1414</v>
       </c>
     </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A484" s="1">
         <v>483</v>
       </c>
@@ -14551,7 +14560,7 @@
         <v>2.198E-4</v>
       </c>
     </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A485" s="1">
         <v>484</v>
       </c>
@@ -14571,7 +14580,7 @@
         <v>7.1490299999999989</v>
       </c>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="1">
         <v>485</v>
       </c>
@@ -14591,7 +14600,7 @@
         <v>0.85868999999999995</v>
       </c>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="1">
         <v>486</v>
       </c>
@@ -14611,7 +14620,7 @@
         <v>7.3121124999999995E-2</v>
       </c>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="1">
         <v>487</v>
       </c>
@@ -14631,7 +14640,7 @@
         <v>2.4271199999999999</v>
       </c>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="1">
         <v>488</v>
       </c>
@@ -14651,7 +14660,7 @@
         <v>2.6836169999999999E-2</v>
       </c>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="1">
         <v>489</v>
       </c>
@@ -14671,7 +14680,7 @@
         <v>2.1434799999999998</v>
       </c>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="1">
         <v>490</v>
       </c>
@@ -14691,7 +14700,7 @@
         <v>1.3110839999999999</v>
       </c>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="1">
         <v>491</v>
       </c>
@@ -14711,7 +14720,7 @@
         <v>1.78816E-3</v>
       </c>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="1">
         <v>492</v>
       </c>
@@ -14731,7 +14740,7 @@
         <v>3.3814800000000001E-3</v>
       </c>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="1">
         <v>493</v>
       </c>
@@ -14751,7 +14760,7 @@
         <v>0.41647200000000001</v>
       </c>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="1">
         <v>494</v>
       </c>
@@ -14771,7 +14780,7 @@
         <v>7.6133309999999996E-2</v>
       </c>
     </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A496" s="1">
         <v>495</v>
       </c>
@@ -14791,7 +14800,7 @@
         <v>4.5428259999999998E-2</v>
       </c>
     </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A497" s="1">
         <v>496</v>
       </c>
@@ -14811,7 +14820,7 @@
         <v>256.49435999999997</v>
       </c>
     </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A498" s="1">
         <v>497</v>
       </c>
@@ -14831,7 +14840,7 @@
         <v>3.3434939999999998E-3</v>
       </c>
     </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A499" s="1">
         <v>498</v>
       </c>
@@ -14851,7 +14860,7 @@
         <v>2.157792E-3</v>
       </c>
     </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A500" s="1">
         <v>499</v>
       </c>
@@ -14871,7 +14880,7 @@
         <v>8.0252799999999992E-3</v>
       </c>
     </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A501" s="1">
         <v>500</v>
       </c>
@@ -14891,7 +14900,7 @@
         <v>7.3389689999999999E-3</v>
       </c>
     </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A502" s="1">
         <v>501</v>
       </c>
@@ -14911,7 +14920,7 @@
         <v>1.7904284999999999E-2</v>
       </c>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="1">
         <v>502</v>
       </c>
@@ -14931,7 +14940,7 @@
         <v>15.788425999999999</v>
       </c>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="1">
         <v>503</v>
       </c>
@@ -14951,7 +14960,7 @@
         <v>0.33621899999999999</v>
       </c>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="1">
         <v>504</v>
       </c>
@@ -14971,7 +14980,7 @@
         <v>0.76591799999999999</v>
       </c>
     </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A506" s="1">
         <v>505</v>
       </c>
@@ -14991,7 +15000,7 @@
         <v>12.540696000000001</v>
       </c>
     </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A507" s="1">
         <v>506</v>
       </c>
@@ -15011,7 +15020,7 @@
         <v>7.1358199999999998</v>
       </c>
     </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A508" s="1">
         <v>507</v>
       </c>
@@ -15031,7 +15040,7 @@
         <v>9.7702019999999994</v>
       </c>
     </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A509" s="1">
         <v>508</v>
       </c>
@@ -15051,7 +15060,7 @@
         <v>4.4627199999999999E-3</v>
       </c>
     </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A510" s="1">
         <v>509</v>
       </c>
@@ -15071,7 +15080,7 @@
         <v>5.0305830000000003E-2</v>
       </c>
     </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A511" s="1">
         <v>510</v>
       </c>
@@ -15091,7 +15100,7 @@
         <v>6.4837920000000002</v>
       </c>
     </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A512" s="1">
         <v>511</v>
       </c>
@@ -15111,7 +15120,7 @@
         <v>2.0760000000000002E-3</v>
       </c>
     </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A513" s="1">
         <v>512</v>
       </c>
@@ -15131,7 +15140,7 @@
         <v>0.97724999999999995</v>
       </c>
     </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A514" s="1">
         <v>513</v>
       </c>
@@ -15151,7 +15160,7 @@
         <v>2.1275249999999999E-2</v>
       </c>
     </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A515" s="1">
         <v>514</v>
       </c>
@@ -15171,7 +15180,7 @@
         <v>8.0432400000000008</v>
       </c>
     </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A516" s="1">
         <v>515</v>
       </c>
@@ -15191,7 +15200,7 @@
         <v>3.9159800000000003E-3</v>
       </c>
     </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A517" s="1">
         <v>516</v>
       </c>
@@ -15211,7 +15220,7 @@
         <v>0.83430899999999997</v>
       </c>
     </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A518" s="1">
         <v>517</v>
       </c>
@@ -15231,7 +15240,7 @@
         <v>2.3339200000000002E-3</v>
       </c>
     </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A519" s="1">
         <v>518</v>
       </c>
@@ -15251,7 +15260,7 @@
         <v>4.2996999999999996</v>
       </c>
     </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A520" s="1">
         <v>519</v>
       </c>
@@ -15271,7 +15280,7 @@
         <v>0.79708800000000002</v>
       </c>
     </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A521" s="1">
         <v>520</v>
       </c>
@@ -15291,7 +15300,7 @@
         <v>2.9862700000000002</v>
       </c>
     </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A522" s="1">
         <v>521</v>
       </c>
@@ -15311,7 +15320,7 @@
         <v>4.0165829999999998</v>
       </c>
     </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A523" s="1">
         <v>522</v>
       </c>
@@ -15331,7 +15340,7 @@
         <v>1.4403999999999999</v>
       </c>
     </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A524" s="1">
         <v>523</v>
       </c>
@@ -15351,7 +15360,7 @@
         <v>14.6234</v>
       </c>
     </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A525" s="1">
         <v>524</v>
       </c>
@@ -15371,7 +15380,7 @@
         <v>6.6606680000000003</v>
       </c>
     </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A526" s="1">
         <v>525</v>
       </c>
@@ -15391,7 +15400,7 @@
         <v>2.1776719999999998</v>
       </c>
     </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A527" s="1">
         <v>526</v>
       </c>
@@ -15411,7 +15420,7 @@
         <v>3.9199100000000004E-3</v>
       </c>
     </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A528" s="1">
         <v>527</v>
       </c>
@@ -15431,7 +15440,7 @@
         <v>4.6202639999999997</v>
       </c>
     </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A529" s="1">
         <v>528</v>
       </c>
@@ -15451,7 +15460,7 @@
         <v>6.6149999999999995E-5</v>
       </c>
     </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A530" s="1">
         <v>529</v>
       </c>
@@ -15471,7 +15480,7 @@
         <v>2.4994200000000002</v>
       </c>
     </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A531" s="1">
         <v>530</v>
       </c>
@@ -15491,7 +15500,7 @@
         <v>110.75883</v>
       </c>
     </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A532" s="1">
         <v>531</v>
       </c>
@@ -15511,7 +15520,7 @@
         <v>5.7538919999999996</v>
       </c>
     </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A533" s="1">
         <v>532</v>
       </c>
@@ -15531,7 +15540,7 @@
         <v>2.7006159999999999E-3</v>
       </c>
     </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A534" s="1">
         <v>533</v>
       </c>
@@ -15551,7 +15560,7 @@
         <v>36.507460000000002</v>
       </c>
     </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A535" s="1">
         <v>534</v>
       </c>
@@ -15571,7 +15580,7 @@
         <v>2.252782E-2</v>
       </c>
     </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A536" s="1">
         <v>535</v>
       </c>
@@ -15591,7 +15600,7 @@
         <v>2.8267000000000002</v>
       </c>
     </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A537" s="1">
         <v>536</v>
       </c>
@@ -15611,7 +15620,7 @@
         <v>0.64681599999999995</v>
       </c>
     </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A538" s="1">
         <v>537</v>
       </c>
@@ -15631,7 +15640,7 @@
         <v>1.1563999999999999E-3</v>
       </c>
     </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A539" s="1">
         <v>538</v>
       </c>
@@ -15651,7 +15660,7 @@
         <v>0.64706399999999997</v>
       </c>
     </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A540" s="1">
         <v>539</v>
       </c>
@@ -15671,7 +15680,7 @@
         <v>20.734559999999998</v>
       </c>
     </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A541" s="1">
         <v>540</v>
       </c>
@@ -15691,7 +15700,7 @@
         <v>1.075016</v>
       </c>
     </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A542" s="1">
         <v>541</v>
       </c>
@@ -15711,7 +15720,7 @@
         <v>7.6852599999999995E-4</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A543" s="1">
         <v>542</v>
       </c>
@@ -15731,7 +15740,7 @@
         <v>21.5871</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A544" s="1">
         <v>543</v>
       </c>
@@ -15751,7 +15760,7 @@
         <v>2.5150684999999999E-2</v>
       </c>
     </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A545" s="1">
         <v>544</v>
       </c>
@@ -15771,7 +15780,7 @@
         <v>3.8105100000000003E-2</v>
       </c>
     </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A546" s="1">
         <v>545</v>
       </c>
@@ -15791,7 +15800,7 @@
         <v>3.7127460000000001</v>
       </c>
     </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A547" s="1">
         <v>546</v>
       </c>
@@ -15811,7 +15820,7 @@
         <v>5.2186300000000001</v>
       </c>
     </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A548" s="1">
         <v>547</v>
       </c>
@@ -15831,7 +15840,7 @@
         <v>3.69198</v>
       </c>
     </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A549" s="1">
         <v>548</v>
       </c>
@@ -15851,7 +15860,7 @@
         <v>1.7293860000000001</v>
       </c>
     </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A550" s="1">
         <v>549</v>
       </c>
@@ -15871,7 +15880,7 @@
         <v>9.5863749999999994E-3</v>
       </c>
     </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A551" s="1">
         <v>550</v>
       </c>
@@ -15891,7 +15900,7 @@
         <v>11.083275</v>
       </c>
     </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A552" s="1">
         <v>551</v>
       </c>
@@ -15911,7 +15920,7 @@
         <v>1.2129599999999999E-3</v>
       </c>
     </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A553" s="1">
         <v>552</v>
       </c>
@@ -15931,7 +15940,7 @@
         <v>0.47039999999999998</v>
       </c>
     </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A554" s="1">
         <v>553</v>
       </c>
@@ -15951,7 +15960,7 @@
         <v>0.48847400000000002</v>
       </c>
     </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A555" s="1">
         <v>554</v>
       </c>
@@ -15971,7 +15980,7 @@
         <v>1.1244366E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A556" s="1">
         <v>555</v>
       </c>
@@ -15991,7 +16000,7 @@
         <v>12.914440000000001</v>
       </c>
     </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A557" s="1">
         <v>556</v>
       </c>
@@ -16011,7 +16020,7 @@
         <v>3.1989100000000001E-3</v>
       </c>
     </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A558" s="1">
         <v>557</v>
       </c>
@@ -16031,7 +16040,7 @@
         <v>3.1758570000000002</v>
       </c>
     </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A559" s="1">
         <v>558</v>
       </c>
@@ -16051,7 +16060,7 @@
         <v>3.1604760000000003E-2</v>
       </c>
     </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A560" s="1">
         <v>559</v>
       </c>
@@ -16071,7 +16080,7 @@
         <v>3.4669300000000001</v>
       </c>
     </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A561" s="1">
         <v>560</v>
       </c>
@@ -16091,7 +16100,7 @@
         <v>1.9563999999999999</v>
       </c>
     </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A562" s="1">
         <v>561</v>
       </c>
@@ -16111,7 +16120,7 @@
         <v>7.012908E-3</v>
       </c>
     </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A563" s="1">
         <v>562</v>
       </c>
@@ -16131,7 +16140,7 @@
         <v>2.6997599999999999</v>
       </c>
     </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A564" s="1">
         <v>563</v>
       </c>
@@ -16151,7 +16160,7 @@
         <v>0.27108399999999999</v>
       </c>
     </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A565" s="1">
         <v>564</v>
       </c>
@@ -16171,7 +16180,7 @@
         <v>17.637695999999998</v>
       </c>
     </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A566" s="1">
         <v>565</v>
       </c>
@@ -16191,7 +16200,7 @@
         <v>14.943905000000001</v>
       </c>
     </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A567" s="1">
         <v>566</v>
       </c>
@@ -16211,7 +16220,7 @@
         <v>5.9737499999999999E-3</v>
       </c>
     </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A568" s="1">
         <v>567</v>
       </c>
@@ -16231,7 +16240,7 @@
         <v>1.629772</v>
       </c>
     </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A569" s="1">
         <v>568</v>
       </c>
@@ -16251,7 +16260,7 @@
         <v>3.0184000000000002</v>
       </c>
     </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A570" s="1">
         <v>569</v>
       </c>
@@ -16271,7 +16280,7 @@
         <v>7.8316100000000004</v>
       </c>
     </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A571" s="1">
         <v>570</v>
       </c>
@@ -16291,7 +16300,7 @@
         <v>1.6743999999999999E-3</v>
       </c>
     </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A572" s="1">
         <v>571</v>
       </c>
@@ -16311,7 +16320,7 @@
         <v>40.119456</v>
       </c>
     </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A573" s="1">
         <v>572</v>
       </c>
@@ -16331,7 +16340,7 @@
         <v>1.218278</v>
       </c>
     </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A574" s="1">
         <v>573</v>
       </c>
@@ -16351,7 +16360,7 @@
         <v>0.90288599999999997</v>
       </c>
     </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A575" s="1">
         <v>574</v>
       </c>
@@ -16371,7 +16380,7 @@
         <v>0.25112000000000001</v>
       </c>
     </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A576" s="1">
         <v>575</v>
       </c>
@@ -16391,7 +16400,7 @@
         <v>3.8452260000000002E-2</v>
       </c>
     </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A577" s="1">
         <v>576</v>
       </c>
@@ -16411,7 +16420,7 @@
         <v>1.5562949999999998</v>
       </c>
     </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A578" s="1">
         <v>577</v>
       </c>
@@ -16431,7 +16440,7 @@
         <v>8.9155499999999996</v>
       </c>
     </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A579" s="1">
         <v>578</v>
       </c>
@@ -16451,7 +16460,7 @@
         <v>6.1328000000000001E-2</v>
       </c>
     </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A580" s="1">
         <v>579</v>
       </c>
@@ -16471,7 +16480,7 @@
         <v>7.7282499999999999E-3</v>
       </c>
     </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A581" s="1">
         <v>580</v>
       </c>
@@ -16491,7 +16500,7 @@
         <v>2.3027850000000001</v>
       </c>
     </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A582" s="1">
         <v>581</v>
       </c>
@@ -16511,7 +16520,7 @@
         <v>11.717124999999999</v>
       </c>
     </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A583" s="1">
         <v>582</v>
       </c>
@@ -16531,7 +16540,7 @@
         <v>0.52271084999999995</v>
       </c>
     </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A584" s="1">
         <v>583</v>
       </c>
@@ -16551,7 +16560,7 @@
         <v>5.0908199999999999</v>
       </c>
     </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A585" s="1">
         <v>584</v>
       </c>
@@ -16571,7 +16580,7 @@
         <v>7.0809599999999996E-4</v>
       </c>
     </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A586" s="1">
         <v>585</v>
       </c>
@@ -16591,7 +16600,7 @@
         <v>5.2189999999999997E-3</v>
       </c>
     </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A587" s="1">
         <v>586</v>
       </c>
@@ -16611,7 +16620,7 @@
         <v>2.63174E-3</v>
       </c>
     </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A588" s="1">
         <v>587</v>
       </c>
@@ -16631,7 +16640,7 @@
         <v>8.8615999999999999E-4</v>
       </c>
     </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A589" s="1">
         <v>588</v>
       </c>
@@ -16651,7 +16660,7 @@
         <v>1.4435800000000001</v>
       </c>
     </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A590" s="1">
         <v>589</v>
       </c>
@@ -16671,7 +16680,7 @@
         <v>1.6938599999999999</v>
       </c>
     </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A591" s="1">
         <v>590</v>
       </c>
@@ -16691,7 +16700,7 @@
         <v>1.300075E-2</v>
       </c>
     </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A592" s="1">
         <v>591</v>
       </c>
@@ -16711,7 +16720,7 @@
         <v>7.1723999999999997</v>
       </c>
     </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A593" s="1">
         <v>592</v>
       </c>
@@ -16731,7 +16740,7 @@
         <v>2.1463800000000002</v>
       </c>
     </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A594" s="1">
         <v>593</v>
       </c>
@@ -16751,7 +16760,7 @@
         <v>0.41626200000000002</v>
       </c>
     </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A595" s="1">
         <v>594</v>
       </c>
@@ -16771,7 +16780,7 @@
         <v>16.028124999999999</v>
       </c>
     </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A596" s="1">
         <v>595</v>
       </c>
@@ -16791,7 +16800,7 @@
         <v>133.46437499999999</v>
       </c>
     </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A597" s="1">
         <v>596</v>
       </c>
@@ -16811,7 +16820,7 @@
         <v>0.536524</v>
       </c>
     </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A598" s="1">
         <v>597</v>
       </c>
@@ -16831,7 +16840,7 @@
         <v>2.6537000000000002E-3</v>
       </c>
     </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A599" s="1">
         <v>598</v>
       </c>
@@ -16851,7 +16860,7 @@
         <v>11.656332000000001</v>
       </c>
     </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A600" s="1">
         <v>599</v>
       </c>
@@ -16871,7 +16880,7 @@
         <v>36.424709999999997</v>
       </c>
     </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A601" s="1">
         <v>600</v>
       </c>
@@ -16891,7 +16900,7 @@
         <v>1.7517499999999999</v>
       </c>
     </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A602" s="1">
         <v>601</v>
       </c>
@@ -16911,7 +16920,7 @@
         <v>4.2442799999999998</v>
       </c>
     </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A603" s="1">
         <v>602</v>
       </c>
@@ -16931,7 +16940,7 @@
         <v>6.5792279999999996</v>
       </c>
     </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A604" s="1">
         <v>603</v>
       </c>
@@ -16951,7 +16960,7 @@
         <v>1.0128280000000001</v>
       </c>
     </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A605" s="1">
         <v>604</v>
       </c>
@@ -16971,7 +16980,7 @@
         <v>1.197E-2</v>
       </c>
     </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A606" s="1">
         <v>605</v>
       </c>
@@ -16991,7 +17000,7 @@
         <v>3.4230000000000003E-4</v>
       </c>
     </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A607" s="1">
         <v>606</v>
       </c>
@@ -17011,7 +17020,7 @@
         <v>4.9109920000000003E-3</v>
       </c>
     </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A608" s="1">
         <v>607</v>
       </c>
@@ -17031,7 +17040,7 @@
         <v>7.7895600000000003E-4</v>
       </c>
     </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A609" s="1">
         <v>608</v>
       </c>
@@ -17051,7 +17060,7 @@
         <v>1.6713899999999999</v>
       </c>
     </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A610" s="1">
         <v>609</v>
       </c>
@@ -17071,7 +17080,7 @@
         <v>5.0360639999999998E-2</v>
       </c>
     </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A611" s="1">
         <v>610</v>
       </c>
@@ -17091,7 +17100,7 @@
         <v>3.35825</v>
       </c>
     </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A612" s="1">
         <v>611</v>
       </c>
@@ -17111,7 +17120,7 @@
         <v>1.7547840000000003</v>
       </c>
     </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A613" s="1">
         <v>612</v>
       </c>
@@ -17131,7 +17140,7 @@
         <v>0.32049</v>
       </c>
     </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A614" s="1">
         <v>613</v>
       </c>
@@ -17151,7 +17160,7 @@
         <v>46.978400000000001</v>
       </c>
     </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A615" s="1">
         <v>614</v>
       </c>
@@ -17171,7 +17180,7 @@
         <v>1.9054279999999999</v>
       </c>
     </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A616" s="1">
         <v>615</v>
       </c>
@@ -17191,7 +17200,7 @@
         <v>12.812925</v>
       </c>
     </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A617" s="1">
         <v>616</v>
       </c>
@@ -17211,7 +17220,7 @@
         <v>1.4103150000000001E-3</v>
       </c>
     </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A618" s="1">
         <v>617</v>
       </c>
@@ -17231,7 +17240,7 @@
         <v>8.5210500000000005E-3</v>
       </c>
     </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A619" s="1">
         <v>618</v>
       </c>
@@ -17251,7 +17260,7 @@
         <v>8.2207500000000002E-4</v>
       </c>
     </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A620" s="1">
         <v>619</v>
       </c>
@@ -17271,7 +17280,7 @@
         <v>0.26519999999999999</v>
       </c>
     </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A621" s="1">
         <v>620</v>
       </c>
@@ -17291,7 +17300,7 @@
         <v>3.9119399999999999E-2</v>
       </c>
     </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A622" s="1">
         <v>621</v>
       </c>
@@ -17311,7 +17320,7 @@
         <v>1.2260999999999999E-4</v>
       </c>
     </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A623" s="1">
         <v>622</v>
       </c>
@@ -17331,7 +17340,7 @@
         <v>23.406288000000004</v>
       </c>
     </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A624" s="1">
         <v>623</v>
       </c>
@@ -17351,7 +17360,7 @@
         <v>1.5693E-3</v>
       </c>
     </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A625" s="1">
         <v>624</v>
       </c>
@@ -17371,7 +17380,7 @@
         <v>1.0740479999999999</v>
       </c>
     </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A626" s="1">
         <v>625</v>
       </c>
@@ -17391,7 +17400,7 @@
         <v>6.9589999999999995E-4</v>
       </c>
     </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A627" s="1">
         <v>626</v>
       </c>
@@ -17411,7 +17420,7 @@
         <v>41.557470000000002</v>
       </c>
     </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A628" s="1">
         <v>627</v>
       </c>
@@ -17431,7 +17440,7 @@
         <v>9.4879999999999997E-4</v>
       </c>
     </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A629" s="1">
         <v>628</v>
       </c>
@@ -17451,7 +17460,7 @@
         <v>5.2649999999999999E-5</v>
       </c>
     </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A630" s="1">
         <v>629</v>
       </c>
@@ -17471,7 +17480,7 @@
         <v>4.175376</v>
       </c>
     </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A631" s="1">
         <v>630</v>
       </c>
@@ -17491,7 +17500,7 @@
         <v>141.32114999999999</v>
       </c>
     </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A632" s="1">
         <v>631</v>
       </c>
@@ -17511,7 +17520,7 @@
         <v>1.5555099999999999</v>
       </c>
     </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A633" s="1">
         <v>632</v>
       </c>
@@ -17531,7 +17540,7 @@
         <v>1.81643E-3</v>
       </c>
     </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A634" s="1">
         <v>633</v>
       </c>
@@ -17551,7 +17560,7 @@
         <v>2.5003500000000001E-2</v>
       </c>
     </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A635" s="1">
         <v>634</v>
       </c>
@@ -17571,7 +17580,7 @@
         <v>129.5658</v>
       </c>
     </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A636" s="1">
         <v>635</v>
       </c>
@@ -17591,7 +17600,7 @@
         <v>3.7041560000000001E-2</v>
       </c>
     </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A637" s="1">
         <v>636</v>
       </c>
@@ -17611,7 +17620,7 @@
         <v>14.212899999999999</v>
       </c>
     </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A638" s="1">
         <v>637</v>
       </c>
@@ -17631,7 +17640,7 @@
         <v>0.14029910000000001</v>
       </c>
     </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A639" s="1">
         <v>638</v>
       </c>
@@ -17651,7 +17660,7 @@
         <v>5.9256000000000001E-4</v>
       </c>
     </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A640" s="1">
         <v>639</v>
       </c>
@@ -17671,7 +17680,7 @@
         <v>2.6437499999999998E-3</v>
       </c>
     </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A641" s="1">
         <v>640</v>
       </c>
@@ -17691,7 +17700,7 @@
         <v>1.1365970000000001</v>
       </c>
     </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A642" s="1">
         <v>641</v>
       </c>
@@ -17711,7 +17720,7 @@
         <v>3.4632629999999998E-2</v>
       </c>
     </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A643" s="1">
         <v>642</v>
       </c>
@@ -17731,7 +17740,7 @@
         <v>57.281559999999999</v>
       </c>
     </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A644" s="1">
         <v>643</v>
       </c>
@@ -17751,7 +17760,7 @@
         <v>4.0651519999999998E-3</v>
       </c>
     </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A645" s="1">
         <v>644</v>
       </c>
@@ -17771,7 +17780,7 @@
         <v>1.3207860000000002</v>
       </c>
     </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A646" s="1">
         <v>645</v>
       </c>
@@ -17791,7 +17800,7 @@
         <v>35.08005</v>
       </c>
     </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A647" s="1">
         <v>646</v>
       </c>
@@ -17811,7 +17820,7 @@
         <v>436.9862</v>
       </c>
     </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A648" s="1">
         <v>647</v>
       </c>
@@ -17831,7 +17840,7 @@
         <v>39.123359999999998</v>
       </c>
     </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A649" s="1">
         <v>648</v>
       </c>
@@ -17851,7 +17860,7 @@
         <v>7.26788E-3</v>
       </c>
     </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A650" s="1">
         <v>649</v>
       </c>
@@ -17871,7 +17880,7 @@
         <v>18.450600000000001</v>
       </c>
     </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A651" s="1">
         <v>650</v>
       </c>
@@ -17891,7 +17900,7 @@
         <v>8.36646</v>
       </c>
     </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A652" s="1">
         <v>651</v>
       </c>
@@ -17911,7 +17920,7 @@
         <v>6.1320499999999996</v>
       </c>
     </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A653" s="1">
         <v>652</v>
       </c>
@@ -17931,7 +17940,7 @@
         <v>0.51778599999999997</v>
       </c>
     </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A654" s="1">
         <v>653</v>
       </c>
@@ -17951,7 +17960,7 @@
         <v>1.1218392000000001E-2</v>
       </c>
     </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A655" s="1">
         <v>654</v>
       </c>
@@ -17971,7 +17980,7 @@
         <v>89.068430000000006</v>
       </c>
     </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A656" s="1">
         <v>655</v>
       </c>
@@ -17991,7 +18000,7 @@
         <v>37.799729999999997</v>
       </c>
     </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A657" s="1">
         <v>656</v>
       </c>
@@ -18011,7 +18020,7 @@
         <v>27.4984</v>
       </c>
     </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A658" s="1">
         <v>657</v>
       </c>
@@ -18031,7 +18040,7 @@
         <v>1.68588</v>
       </c>
     </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A659" s="1">
         <v>658</v>
       </c>
@@ -18051,7 +18060,7 @@
         <v>26.937232000000002</v>
       </c>
     </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A660" s="1">
         <v>659</v>
       </c>
@@ -18071,7 +18080,7 @@
         <v>2.9541080000000002</v>
       </c>
     </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A661" s="1">
         <v>660</v>
       </c>
@@ -18091,7 +18100,7 @@
         <v>2.2291599999999998</v>
       </c>
     </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A662" s="1">
         <v>661</v>
       </c>
@@ -18111,7 +18120,7 @@
         <v>12.357950000000001</v>
       </c>
     </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A663" s="1">
         <v>662</v>
       </c>
@@ -18131,7 +18140,7 @@
         <v>4.3650599999999996E-3</v>
       </c>
     </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A664" s="1">
         <v>663</v>
       </c>
@@ -18151,7 +18160,7 @@
         <v>10.86327</v>
       </c>
     </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A665" s="1">
         <v>664</v>
       </c>
@@ -18171,7 +18180,7 @@
         <v>13.829031000000001</v>
       </c>
     </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A666" s="1">
         <v>665</v>
       </c>
@@ -18191,7 +18200,7 @@
         <v>3.4042959999999998E-3</v>
       </c>
     </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A667" s="1">
         <v>666</v>
       </c>
@@ -18211,7 +18220,7 @@
         <v>0.12281556</v>
       </c>
     </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A668" s="1">
         <v>667</v>
       </c>
@@ -18231,7 +18240,7 @@
         <v>4.2635199999999998E-2</v>
       </c>
     </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A669" s="1">
         <v>668</v>
       </c>
@@ -18251,7 +18260,7 @@
         <v>2.544138E-2</v>
       </c>
     </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A670" s="1">
         <v>669</v>
       </c>
@@ -18271,7 +18280,7 @@
         <v>1.911175E-3</v>
       </c>
     </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A671" s="1">
         <v>670</v>
       </c>
@@ -18291,7 +18300,7 @@
         <v>7.0831320000000003E-2</v>
       </c>
     </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A672" s="1">
         <v>671</v>
       </c>
@@ -18311,7 +18320,7 @@
         <v>1.7794049999999999</v>
       </c>
     </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A673" s="1">
         <v>672</v>
       </c>
@@ -18331,7 +18340,7 @@
         <v>0.11026080000000001</v>
       </c>
     </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A674" s="1">
         <v>673</v>
       </c>
@@ -18351,7 +18360,7 @@
         <v>7.9255000000000003E-3</v>
       </c>
     </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A675" s="1">
         <v>674</v>
       </c>
@@ -18371,7 +18380,7 @@
         <v>0.61424999999999996</v>
       </c>
     </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A676" s="1">
         <v>675</v>
       </c>
@@ -18391,7 +18400,7 @@
         <v>0.120227</v>
       </c>
     </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A677" s="1">
         <v>676</v>
       </c>
@@ -18411,7 +18420,7 @@
         <v>120.83445</v>
       </c>
     </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A678" s="1">
         <v>677</v>
       </c>
@@ -18431,7 +18440,7 @@
         <v>152.93995000000001</v>
       </c>
     </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A679" s="1">
         <v>678</v>
       </c>
@@ -18451,7 +18460,7 @@
         <v>4.6724389999999998E-2</v>
       </c>
     </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A680" s="1">
         <v>679</v>
       </c>
@@ -18471,7 +18480,7 @@
         <v>7.6222079999999997</v>
       </c>
     </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A681" s="1">
         <v>680</v>
       </c>
@@ -18491,7 +18500,7 @@
         <v>2.1257600000000001</v>
       </c>
     </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A682" s="1">
         <v>681</v>
       </c>
@@ -18511,7 +18520,7 @@
         <v>3.905564</v>
       </c>
     </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A683" s="1">
         <v>682</v>
       </c>
@@ -18531,7 +18540,7 @@
         <v>0.65300400000000003</v>
       </c>
     </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A684" s="1">
         <v>683</v>
       </c>
@@ -18551,7 +18560,7 @@
         <v>0.37540000000000001</v>
       </c>
     </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A685" s="1">
         <v>684</v>
       </c>
@@ -18571,7 +18580,7 @@
         <v>1.1566656E-2</v>
       </c>
     </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A686" s="1">
         <v>685</v>
       </c>
@@ -18591,7 +18600,7 @@
         <v>1.5836190000000001</v>
       </c>
     </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A687" s="1">
         <v>686</v>
       </c>
@@ -18611,7 +18620,7 @@
         <v>3.4349440000000002</v>
       </c>
     </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A688" s="1">
         <v>687</v>
       </c>
@@ -18631,7 +18640,7 @@
         <v>4.8496519999999999</v>
       </c>
     </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A689" s="1">
         <v>688</v>
       </c>
@@ -18651,7 +18660,7 @@
         <v>6.7544399999999998</v>
       </c>
     </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A690" s="1">
         <v>689</v>
       </c>
@@ -18671,7 +18680,7 @@
         <v>7.4395860000000003</v>
       </c>
     </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A691" s="1">
         <v>690</v>
       </c>
@@ -18691,7 +18700,7 @@
         <v>2.9683800000000001E-4</v>
       </c>
     </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A692" s="1">
         <v>691</v>
       </c>
@@ -18711,7 +18720,7 @@
         <v>29.7319</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A693" s="1">
         <v>692</v>
       </c>
@@ -18731,7 +18740,7 @@
         <v>3.3513480000000002</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A694" s="1">
         <v>693</v>
       </c>
@@ -18751,7 +18760,7 @@
         <v>46.358789999999999</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A695" s="1">
         <v>694</v>
       </c>
@@ -18771,7 +18780,7 @@
         <v>10.013396</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A696" s="1">
         <v>695</v>
       </c>
@@ -18791,7 +18800,7 @@
         <v>21.120601000000001</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A697" s="1">
         <v>696</v>
       </c>
@@ -18811,7 +18820,7 @@
         <v>6.037839</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A698" s="1">
         <v>697</v>
       </c>
@@ -18831,7 +18840,7 @@
         <v>1.0893388E-2</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A699" s="1">
         <v>698</v>
       </c>
@@ -18851,7 +18860,7 @@
         <v>11.30808</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A700" s="1">
         <v>699</v>
       </c>
@@ -18871,7 +18880,7 @@
         <v>4.2327680000000001</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A701" s="1">
         <v>700</v>
       </c>
@@ -18891,7 +18900,7 @@
         <v>6.2181069999999998</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A702" s="1">
         <v>701</v>
       </c>
@@ -18911,7 +18920,7 @@
         <v>38.565399999999997</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A703" s="1">
         <v>702</v>
       </c>
@@ -18931,7 +18940,7 @@
         <v>4.76816</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A704" s="1">
         <v>703</v>
       </c>
@@ -18951,7 +18960,7 @@
         <v>16.622375000000002</v>
       </c>
     </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A705" s="1">
         <v>704</v>
       </c>
@@ -18971,7 +18980,7 @@
         <v>6.7860450000000001E-3</v>
       </c>
     </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A706" s="1">
         <v>705</v>
       </c>
@@ -18991,7 +19000,7 @@
         <v>2.16384</v>
       </c>
     </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A707" s="1">
         <v>706</v>
       </c>
@@ -19011,7 +19020,7 @@
         <v>6.0634199999999998</v>
       </c>
     </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A708" s="1">
         <v>707</v>
       </c>
@@ -19031,7 +19040,7 @@
         <v>67.847645</v>
       </c>
     </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A709" s="1">
         <v>708</v>
       </c>
@@ -19051,7 +19060,7 @@
         <v>9.2527400000000006E-3</v>
       </c>
     </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A710" s="1">
         <v>709</v>
       </c>
@@ -19071,7 +19080,7 @@
         <v>5.7711699999999997</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="711" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A711" s="5"/>
       <c r="B711" s="6"/>
       <c r="C711" s="6"/>
@@ -19101,21 +19110,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C93236C-DC78-4F1B-B1CA-8FCC9D70B699}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>1433</v>
+        <v>1427</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>1424</v>
@@ -19124,103 +19133,152 @@
         <v>1425</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>1432</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>1426</v>
+        <v>1428</v>
       </c>
       <c r="B2" s="12">
-        <f t="shared" ref="B2:B5" si="0">C3</f>
-        <v>36</v>
+        <f t="shared" ref="B2:B8" si="0">C3</f>
+        <v>81</v>
       </c>
       <c r="C2" s="13">
         <v>10000</v>
       </c>
       <c r="D2" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>1427</v>
+        <v>1429</v>
       </c>
       <c r="B3" s="12">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C3" s="12">
-        <f t="shared" ref="C3:C5" si="1">B3*D3</f>
-        <v>36</v>
+        <f t="shared" ref="C3:C8" si="1">B3*D3</f>
+        <v>81</v>
       </c>
       <c r="D3" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>1428</v>
+        <v>1430</v>
       </c>
       <c r="B4" s="12">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="C4" s="12">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D4" s="14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>1429</v>
+        <v>1431</v>
       </c>
       <c r="B5" s="12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C5" s="12">
         <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="D5" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B6" s="12">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D5" s="14">
+      <c r="C6" s="12">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="D6" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B7" s="12">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="C7" s="12">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D7" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B8" s="12">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="C8" s="12">
+        <f t="shared" si="1"/>
+        <v>4.5</v>
+      </c>
+      <c r="D8" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="11" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B6" s="12">
-        <f>C7</f>
-        <v>1</v>
-      </c>
-      <c r="C6" s="12">
-        <f>B6*D6</f>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B9" s="12">
+        <f>C10</f>
+        <v>0.5</v>
+      </c>
+      <c r="C9" s="12">
+        <f>B9*D9</f>
+        <v>1.5</v>
+      </c>
+      <c r="D9" s="14">
         <v>3</v>
       </c>
-      <c r="D6" s="14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B7" s="15">
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B10" s="15">
         <v>0</v>
       </c>
-      <c r="C7" s="15">
-        <v>1</v>
-      </c>
-      <c r="D7" s="16">
+      <c r="C10" s="15">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="16">
         <v>3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DataInput/Symbols_MarketCap_MarketCapCategoryRange.xlsx
+++ b/DataInput/Symbols_MarketCap_MarketCapCategoryRange.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/9abbcc666f3bf995/Documents/Private/MATLAB Project in PSN Laptop/QTrade_Project/DataInput/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="114_{DEBBC724-07F9-4733-B83E-323874A73E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{76FE77B8-4DE1-4A8F-8505-D0BBD2F96C99}"/>
+  <xr:revisionPtr revIDLastSave="128" documentId="114_{DEBBC724-07F9-4733-B83E-323874A73E14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1EE5AD9-0D96-49E7-A09F-EA1D422DAF3B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FBBB7E98-F13C-4020-818F-37A059CD2F24}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{FBBB7E98-F13C-4020-818F-37A059CD2F24}"/>
   </bookViews>
   <sheets>
     <sheet name="SymbolsMarketCapReference" sheetId="1" r:id="rId1"/>
     <sheet name="MarketCap_Category_Range" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="SelectedSymbols" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029" calcMode="manual"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1441" uniqueCount="1437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1579" uniqueCount="1574">
   <si>
     <t>No</t>
   </si>
@@ -4369,17 +4370,429 @@
   </si>
   <si>
     <t>MidSmallCap</t>
+  </si>
+  <si>
+    <t>'BRPT'</t>
+  </si>
+  <si>
+    <t>'TCPI'</t>
+  </si>
+  <si>
+    <t>'INDY'</t>
+  </si>
+  <si>
+    <t>'ASSA'</t>
+  </si>
+  <si>
+    <t>'HRUM'</t>
+  </si>
+  <si>
+    <t>'TECH'</t>
+  </si>
+  <si>
+    <t>'TPIA'</t>
+  </si>
+  <si>
+    <t>'BNBA'</t>
+  </si>
+  <si>
+    <t>'BANK'</t>
+  </si>
+  <si>
+    <t>'SGER'</t>
+  </si>
+  <si>
+    <t>'MDKA'</t>
+  </si>
+  <si>
+    <t>'MARK'</t>
+  </si>
+  <si>
+    <t>'AGRO'</t>
+  </si>
+  <si>
+    <t>'UFOE'</t>
+  </si>
+  <si>
+    <t>'DOID'</t>
+  </si>
+  <si>
+    <t>'CLEO'</t>
+  </si>
+  <si>
+    <t>'PTRO'</t>
+  </si>
+  <si>
+    <t>'SPMA'</t>
+  </si>
+  <si>
+    <t>'SMDR'</t>
+  </si>
+  <si>
+    <t>'BHAT'</t>
+  </si>
+  <si>
+    <t>'ADRO'</t>
+  </si>
+  <si>
+    <t>'MCAS'</t>
+  </si>
+  <si>
+    <t>'MTDL'</t>
+  </si>
+  <si>
+    <t>'KKGI'</t>
+  </si>
+  <si>
+    <t>'BYAN'</t>
+  </si>
+  <si>
+    <t>'SRTG'</t>
+  </si>
+  <si>
+    <t>'PYFA'</t>
+  </si>
+  <si>
+    <t>'ERAA'</t>
+  </si>
+  <si>
+    <t>'HEXA'</t>
+  </si>
+  <si>
+    <t>'ITMG'</t>
+  </si>
+  <si>
+    <t>'INCO'</t>
+  </si>
+  <si>
+    <t>'BFIN'</t>
+  </si>
+  <si>
+    <t>'MBSS'</t>
+  </si>
+  <si>
+    <t>'RANC'</t>
+  </si>
+  <si>
+    <t>'JTPE'</t>
+  </si>
+  <si>
+    <t>'SHIP'</t>
+  </si>
+  <si>
+    <t>'CARE'</t>
+  </si>
+  <si>
+    <t>'PTBA'</t>
+  </si>
+  <si>
+    <t>'NATO'</t>
+  </si>
+  <si>
+    <t>'TINS'</t>
+  </si>
+  <si>
+    <t>'IMPC'</t>
+  </si>
+  <si>
+    <t>'CCSI'</t>
+  </si>
+  <si>
+    <t>'MARI'</t>
+  </si>
+  <si>
+    <t>'ADES'</t>
+  </si>
+  <si>
+    <t>'MEDC'</t>
+  </si>
+  <si>
+    <t>'CSRA'</t>
+  </si>
+  <si>
+    <t>'WOMF'</t>
+  </si>
+  <si>
+    <t>'SIDO'</t>
+  </si>
+  <si>
+    <t>'BULL'</t>
+  </si>
+  <si>
+    <t>'SNLK'</t>
+  </si>
+  <si>
+    <t>'BBCA'</t>
+  </si>
+  <si>
+    <t>'MCOL'</t>
+  </si>
+  <si>
+    <t>'HOMI'</t>
+  </si>
+  <si>
+    <t>'JPFA'</t>
+  </si>
+  <si>
+    <t>'WOOD'</t>
+  </si>
+  <si>
+    <t>'EMTK'</t>
+  </si>
+  <si>
+    <t>'TAMU'</t>
+  </si>
+  <si>
+    <t>'PALM'</t>
+  </si>
+  <si>
+    <t>'TBIG'</t>
+  </si>
+  <si>
+    <t>'CENT'</t>
+  </si>
+  <si>
+    <t>'MPMX'</t>
+  </si>
+  <si>
+    <t>'ADMF'</t>
+  </si>
+  <si>
+    <t>'RMKE'</t>
+  </si>
+  <si>
+    <t>'BTPS'</t>
+  </si>
+  <si>
+    <t>'DFAM'</t>
+  </si>
+  <si>
+    <t>'HEAL'</t>
+  </si>
+  <si>
+    <t>'CPIN'</t>
+  </si>
+  <si>
+    <t>'ADMG'</t>
+  </si>
+  <si>
+    <t>'BBRI'</t>
+  </si>
+  <si>
+    <t>'BNGA'</t>
+  </si>
+  <si>
+    <t>'ZINC'</t>
+  </si>
+  <si>
+    <t>'SMBR'</t>
+  </si>
+  <si>
+    <t>'HOKI'</t>
+  </si>
+  <si>
+    <t>'AYLS'</t>
+  </si>
+  <si>
+    <t>'BJTM'</t>
+  </si>
+  <si>
+    <t>'UNTR'</t>
+  </si>
+  <si>
+    <t>'SMCB'</t>
+  </si>
+  <si>
+    <t>'BBNI'</t>
+  </si>
+  <si>
+    <t>'BMRI'</t>
+  </si>
+  <si>
+    <t>'FREN'</t>
+  </si>
+  <si>
+    <t>'TBLA'</t>
+  </si>
+  <si>
+    <t>'META'</t>
+  </si>
+  <si>
+    <t>'SIMP'</t>
+  </si>
+  <si>
+    <t>'MYOR'</t>
+  </si>
+  <si>
+    <t>'KRAS'</t>
+  </si>
+  <si>
+    <t>'ACES'</t>
+  </si>
+  <si>
+    <t>'BBTN'</t>
+  </si>
+  <si>
+    <t>'SMSM'</t>
+  </si>
+  <si>
+    <t>'TRIN'</t>
+  </si>
+  <si>
+    <t>'ELSA'</t>
+  </si>
+  <si>
+    <t>'DSNG'</t>
+  </si>
+  <si>
+    <t>'RALS'</t>
+  </si>
+  <si>
+    <t>'PMMP'</t>
+  </si>
+  <si>
+    <t>'LINK'</t>
+  </si>
+  <si>
+    <t>'MIKA'</t>
+  </si>
+  <si>
+    <t>'MINA'</t>
+  </si>
+  <si>
+    <t>'PNBN'</t>
+  </si>
+  <si>
+    <t>'SULI'</t>
+  </si>
+  <si>
+    <t>'RAJA'</t>
+  </si>
+  <si>
+    <t>'ISAT'</t>
+  </si>
+  <si>
+    <t>'PNLF'</t>
+  </si>
+  <si>
+    <t>'DSFI'</t>
+  </si>
+  <si>
+    <t>'BKSL'</t>
+  </si>
+  <si>
+    <t>'DMAS'</t>
+  </si>
+  <si>
+    <t>'PTPW'</t>
+  </si>
+  <si>
+    <t>'SAME'</t>
+  </si>
+  <si>
+    <t>'BDMN'</t>
+  </si>
+  <si>
+    <t>'WIFI'</t>
+  </si>
+  <si>
+    <t>'PICO'</t>
+  </si>
+  <si>
+    <t>'DIVA'</t>
+  </si>
+  <si>
+    <t>'WEGE'</t>
+  </si>
+  <si>
+    <t>'POLL'</t>
+  </si>
+  <si>
+    <t>'ANDI'</t>
+  </si>
+  <si>
+    <t>'BWPT'</t>
+  </si>
+  <si>
+    <t>'SMGR'</t>
+  </si>
+  <si>
+    <t>'MNCN'</t>
+  </si>
+  <si>
+    <t>'MKNT'</t>
+  </si>
+  <si>
+    <t>'PSAB'</t>
+  </si>
+  <si>
+    <t>'TOPS'</t>
+  </si>
+  <si>
+    <t>'KBAG'</t>
+  </si>
+  <si>
+    <t>'JAST'</t>
+  </si>
+  <si>
+    <t>'BBKP'</t>
+  </si>
+  <si>
+    <t>'INTA'</t>
+  </si>
+  <si>
+    <t>'HRME'</t>
+  </si>
+  <si>
+    <t>'FIRE'</t>
+  </si>
+  <si>
+    <t>'TGRA'</t>
+  </si>
+  <si>
+    <t>'DEAL'</t>
+  </si>
+  <si>
+    <t>'VIVA'</t>
+  </si>
+  <si>
+    <t>'MTPS'</t>
+  </si>
+  <si>
+    <t>'BOSS'</t>
+  </si>
+  <si>
+    <t>'AISA'</t>
+  </si>
+  <si>
+    <t>'KOTA'</t>
+  </si>
+  <si>
+    <t>'BEEF'</t>
+  </si>
+  <si>
+    <t>'ARKA'</t>
+  </si>
+  <si>
+    <t>'BCIP'</t>
+  </si>
+  <si>
+    <t>Symbols</t>
+  </si>
+  <si>
+    <t>CumRet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_(#,##0.00_)_%;\(#,##0.00\)_%;_(&quot;–&quot;_)_%;_(@_)_%"/>
     <numFmt numFmtId="165" formatCode="_(#,##0.0_)_%;\(#,##0.0\)_%;_(&quot;–&quot;_)_%;_(@_)_%"/>
+    <numFmt numFmtId="170" formatCode="_(#,##0_)_%;\(#,##0\)_%;_(&quot;–&quot;_)_%;_(@_)_%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4410,8 +4823,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4430,8 +4851,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9DAF8"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4519,11 +4946,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -4550,6 +4992,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4888,7 +5334,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23E1C312-C468-4301-85DB-A357859DE19C}">
   <dimension ref="A1:F711"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B225" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -19491,4 +19937,2231 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726BC0F7-3234-4A5E-AA32-8731C155E075}">
+  <dimension ref="A1:D136"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1572</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>1573</v>
+      </c>
+      <c r="D1" s="20" t="str">
+        <f>C1</f>
+        <v>CumRet</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
+        <f>ROW(A1)</f>
+        <v>1</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C2" s="22">
+        <v>63.305975574294898</v>
+      </c>
+      <c r="D2" s="23">
+        <f t="shared" ref="D2:D65" si="0">C2</f>
+        <v>63.305975574294898</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="21">
+        <f>ROW(A2)</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1438</v>
+      </c>
+      <c r="C3" s="22">
+        <v>42.875535658812503</v>
+      </c>
+      <c r="D3" s="23">
+        <f t="shared" si="0"/>
+        <v>42.875535658812503</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="21">
+        <f t="shared" ref="A3:A66" si="1">ROW(A3)</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1439</v>
+      </c>
+      <c r="C4" s="22">
+        <v>24.591201677937299</v>
+      </c>
+      <c r="D4" s="23">
+        <f t="shared" si="0"/>
+        <v>24.591201677937299</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="21">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1440</v>
+      </c>
+      <c r="C5" s="22">
+        <v>22.701442322048901</v>
+      </c>
+      <c r="D5" s="23">
+        <f t="shared" si="0"/>
+        <v>22.701442322048901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>1441</v>
+      </c>
+      <c r="C6" s="22">
+        <v>18.6517693500634</v>
+      </c>
+      <c r="D6" s="23">
+        <f t="shared" si="0"/>
+        <v>18.6517693500634</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>1442</v>
+      </c>
+      <c r="C7" s="22">
+        <v>17.5308857244341</v>
+      </c>
+      <c r="D7" s="23">
+        <f t="shared" si="0"/>
+        <v>17.5308857244341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>1443</v>
+      </c>
+      <c r="C8" s="22">
+        <v>16.330848898779099</v>
+      </c>
+      <c r="D8" s="23">
+        <f t="shared" si="0"/>
+        <v>16.330848898779099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>1444</v>
+      </c>
+      <c r="C9" s="22">
+        <v>16.140317568915901</v>
+      </c>
+      <c r="D9" s="23">
+        <f t="shared" si="0"/>
+        <v>16.140317568915901</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1445</v>
+      </c>
+      <c r="C10" s="22">
+        <v>15.431279552841699</v>
+      </c>
+      <c r="D10" s="23">
+        <f t="shared" si="0"/>
+        <v>15.431279552841699</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1446</v>
+      </c>
+      <c r="C11" s="22">
+        <v>13.8332117491604</v>
+      </c>
+      <c r="D11" s="23">
+        <f t="shared" si="0"/>
+        <v>13.8332117491604</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1447</v>
+      </c>
+      <c r="C12" s="22">
+        <v>13.3378970177844</v>
+      </c>
+      <c r="D12" s="23">
+        <f t="shared" si="0"/>
+        <v>13.3378970177844</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1448</v>
+      </c>
+      <c r="C13" s="22">
+        <v>12.8290182577196</v>
+      </c>
+      <c r="D13" s="23">
+        <f t="shared" si="0"/>
+        <v>12.8290182577196</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1449</v>
+      </c>
+      <c r="C14" s="22">
+        <v>11.8676619258471</v>
+      </c>
+      <c r="D14" s="23">
+        <f t="shared" si="0"/>
+        <v>11.8676619258471</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="21">
+        <f t="shared" si="1"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1450</v>
+      </c>
+      <c r="C15" s="22">
+        <v>11.4634446397188</v>
+      </c>
+      <c r="D15" s="23">
+        <f t="shared" si="0"/>
+        <v>11.4634446397188</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="21">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1451</v>
+      </c>
+      <c r="C16" s="22">
+        <v>11.4035736530676</v>
+      </c>
+      <c r="D16" s="23">
+        <f t="shared" si="0"/>
+        <v>11.4035736530676</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1452</v>
+      </c>
+      <c r="C17" s="22">
+        <v>10.8615630226547</v>
+      </c>
+      <c r="D17" s="23">
+        <f t="shared" si="0"/>
+        <v>10.8615630226547</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1453</v>
+      </c>
+      <c r="C18" s="22">
+        <v>9.9106566459507608</v>
+      </c>
+      <c r="D18" s="23">
+        <f t="shared" si="0"/>
+        <v>9.9106566459507608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1454</v>
+      </c>
+      <c r="C19" s="22">
+        <v>8.5148681388491401</v>
+      </c>
+      <c r="D19" s="23">
+        <f t="shared" si="0"/>
+        <v>8.5148681388491401</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>1455</v>
+      </c>
+      <c r="C20" s="22">
+        <v>7.5966352072219898</v>
+      </c>
+      <c r="D20" s="23">
+        <f t="shared" si="0"/>
+        <v>7.5966352072219898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1456</v>
+      </c>
+      <c r="C21" s="22">
+        <v>7.2114376671518396</v>
+      </c>
+      <c r="D21" s="23">
+        <f t="shared" si="0"/>
+        <v>7.2114376671518396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>1457</v>
+      </c>
+      <c r="C22" s="22">
+        <v>6.3563471953500104</v>
+      </c>
+      <c r="D22" s="23">
+        <f t="shared" si="0"/>
+        <v>6.3563471953500104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>1458</v>
+      </c>
+      <c r="C23" s="22">
+        <v>5.9774669358075698</v>
+      </c>
+      <c r="D23" s="23">
+        <f t="shared" si="0"/>
+        <v>5.9774669358075698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>1459</v>
+      </c>
+      <c r="C24" s="22">
+        <v>5.6349725960513899</v>
+      </c>
+      <c r="D24" s="23">
+        <f t="shared" si="0"/>
+        <v>5.6349725960513899</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>1460</v>
+      </c>
+      <c r="C25" s="22">
+        <v>5.5840825027666998</v>
+      </c>
+      <c r="D25" s="23">
+        <f t="shared" si="0"/>
+        <v>5.5840825027666998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>1461</v>
+      </c>
+      <c r="C26" s="22">
+        <v>5.5835060122744302</v>
+      </c>
+      <c r="D26" s="23">
+        <f t="shared" si="0"/>
+        <v>5.5835060122744302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>1462</v>
+      </c>
+      <c r="C27" s="22">
+        <v>5.2575721318436903</v>
+      </c>
+      <c r="D27" s="23">
+        <f t="shared" si="0"/>
+        <v>5.2575721318436903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>1463</v>
+      </c>
+      <c r="C28" s="22">
+        <v>5.1581846826770601</v>
+      </c>
+      <c r="D28" s="23">
+        <f t="shared" si="0"/>
+        <v>5.1581846826770601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
+        <f t="shared" si="1"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>1464</v>
+      </c>
+      <c r="C29" s="22">
+        <v>4.9241500858030696</v>
+      </c>
+      <c r="D29" s="23">
+        <f t="shared" si="0"/>
+        <v>4.9241500858030696</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>1465</v>
+      </c>
+      <c r="C30" s="22">
+        <v>4.8951141229992796</v>
+      </c>
+      <c r="D30" s="23">
+        <f t="shared" si="0"/>
+        <v>4.8951141229992796</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
+        <f t="shared" si="1"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>1466</v>
+      </c>
+      <c r="C31" s="22">
+        <v>4.7983267140867998</v>
+      </c>
+      <c r="D31" s="23">
+        <f t="shared" si="0"/>
+        <v>4.7983267140867998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
+        <f t="shared" si="1"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>1467</v>
+      </c>
+      <c r="C32" s="22">
+        <v>4.7691523776176297</v>
+      </c>
+      <c r="D32" s="23">
+        <f t="shared" si="0"/>
+        <v>4.7691523776176297</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
+        <f t="shared" si="1"/>
+        <v>32</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>1468</v>
+      </c>
+      <c r="C33" s="22">
+        <v>4.6764033238071798</v>
+      </c>
+      <c r="D33" s="23">
+        <f t="shared" si="0"/>
+        <v>4.6764033238071798</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
+        <f t="shared" si="1"/>
+        <v>33</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>1469</v>
+      </c>
+      <c r="C34" s="22">
+        <v>4.6593069848592403</v>
+      </c>
+      <c r="D34" s="23">
+        <f t="shared" si="0"/>
+        <v>4.6593069848592403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>1470</v>
+      </c>
+      <c r="C35" s="22">
+        <v>4.6571145693476996</v>
+      </c>
+      <c r="D35" s="23">
+        <f t="shared" si="0"/>
+        <v>4.6571145693476996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
+        <f t="shared" si="1"/>
+        <v>35</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>1471</v>
+      </c>
+      <c r="C36" s="22">
+        <v>4.5258473409856599</v>
+      </c>
+      <c r="D36" s="23">
+        <f t="shared" si="0"/>
+        <v>4.5258473409856599</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>1472</v>
+      </c>
+      <c r="C37" s="22">
+        <v>4.2353284047116802</v>
+      </c>
+      <c r="D37" s="23">
+        <f t="shared" si="0"/>
+        <v>4.2353284047116802</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>1473</v>
+      </c>
+      <c r="C38" s="22">
+        <v>4.1987741496110997</v>
+      </c>
+      <c r="D38" s="23">
+        <f t="shared" si="0"/>
+        <v>4.1987741496110997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>1474</v>
+      </c>
+      <c r="C39" s="22">
+        <v>4.0941116380209897</v>
+      </c>
+      <c r="D39" s="23">
+        <f t="shared" si="0"/>
+        <v>4.0941116380209897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>1475</v>
+      </c>
+      <c r="C40" s="22">
+        <v>3.8808055804297101</v>
+      </c>
+      <c r="D40" s="23">
+        <f t="shared" si="0"/>
+        <v>3.8808055804297101</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>1476</v>
+      </c>
+      <c r="C41" s="22">
+        <v>3.8702483843986801</v>
+      </c>
+      <c r="D41" s="23">
+        <f t="shared" si="0"/>
+        <v>3.8702483843986801</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
+        <f t="shared" si="1"/>
+        <v>41</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>1477</v>
+      </c>
+      <c r="C42" s="22">
+        <v>3.8374680035974298</v>
+      </c>
+      <c r="D42" s="23">
+        <f t="shared" si="0"/>
+        <v>3.8374680035974298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
+        <f t="shared" si="1"/>
+        <v>42</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C43" s="22">
+        <v>3.7061602824153499</v>
+      </c>
+      <c r="D43" s="23">
+        <f t="shared" si="0"/>
+        <v>3.7061602824153499</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
+        <f t="shared" si="1"/>
+        <v>43</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>1479</v>
+      </c>
+      <c r="C44" s="22">
+        <v>3.6533386800507102</v>
+      </c>
+      <c r="D44" s="23">
+        <f t="shared" si="0"/>
+        <v>3.6533386800507102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
+        <f t="shared" si="1"/>
+        <v>44</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>1480</v>
+      </c>
+      <c r="C45" s="22">
+        <v>3.6354785491480799</v>
+      </c>
+      <c r="D45" s="23">
+        <f t="shared" si="0"/>
+        <v>3.6354785491480799</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="21">
+        <f t="shared" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>1481</v>
+      </c>
+      <c r="C46" s="22">
+        <v>3.5576500215929601</v>
+      </c>
+      <c r="D46" s="23">
+        <f t="shared" si="0"/>
+        <v>3.5576500215929601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>1482</v>
+      </c>
+      <c r="C47" s="22">
+        <v>3.4329519752093698</v>
+      </c>
+      <c r="D47" s="23">
+        <f t="shared" si="0"/>
+        <v>3.4329519752093698</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
+        <f t="shared" si="1"/>
+        <v>47</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>1483</v>
+      </c>
+      <c r="C48" s="22">
+        <v>3.3496601508235799</v>
+      </c>
+      <c r="D48" s="23">
+        <f t="shared" si="0"/>
+        <v>3.3496601508235799</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>1484</v>
+      </c>
+      <c r="C49" s="22">
+        <v>3.3459085914909301</v>
+      </c>
+      <c r="D49" s="23">
+        <f t="shared" si="0"/>
+        <v>3.3459085914909301</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
+        <f t="shared" si="1"/>
+        <v>49</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>1485</v>
+      </c>
+      <c r="C50" s="22">
+        <v>3.0206708236552799</v>
+      </c>
+      <c r="D50" s="23">
+        <f t="shared" si="0"/>
+        <v>3.0206708236552799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>1486</v>
+      </c>
+      <c r="C51" s="22">
+        <v>2.96308529336256</v>
+      </c>
+      <c r="D51" s="23">
+        <f t="shared" si="0"/>
+        <v>2.96308529336256</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
+        <f t="shared" si="1"/>
+        <v>51</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>1487</v>
+      </c>
+      <c r="C52" s="22">
+        <v>2.9202799861957298</v>
+      </c>
+      <c r="D52" s="23">
+        <f t="shared" si="0"/>
+        <v>2.9202799861957298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
+        <f t="shared" si="1"/>
+        <v>52</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>1488</v>
+      </c>
+      <c r="C53" s="22">
+        <v>2.86824570323378</v>
+      </c>
+      <c r="D53" s="23">
+        <f t="shared" si="0"/>
+        <v>2.86824570323378</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
+        <f t="shared" si="1"/>
+        <v>53</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>1489</v>
+      </c>
+      <c r="C54" s="22">
+        <v>2.8331448547451301</v>
+      </c>
+      <c r="D54" s="23">
+        <f t="shared" si="0"/>
+        <v>2.8331448547451301</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
+        <f t="shared" si="1"/>
+        <v>54</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>1490</v>
+      </c>
+      <c r="C55" s="22">
+        <v>2.7077949517024602</v>
+      </c>
+      <c r="D55" s="23">
+        <f t="shared" si="0"/>
+        <v>2.7077949517024602</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>1491</v>
+      </c>
+      <c r="C56" s="22">
+        <v>2.6508319294326999</v>
+      </c>
+      <c r="D56" s="23">
+        <f t="shared" si="0"/>
+        <v>2.6508319294326999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>1492</v>
+      </c>
+      <c r="C57" s="22">
+        <v>2.6287614907157599</v>
+      </c>
+      <c r="D57" s="23">
+        <f t="shared" si="0"/>
+        <v>2.6287614907157599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
+        <f t="shared" si="1"/>
+        <v>57</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>1493</v>
+      </c>
+      <c r="C58" s="22">
+        <v>2.6169389265866601</v>
+      </c>
+      <c r="D58" s="23">
+        <f t="shared" si="0"/>
+        <v>2.6169389265866601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="21">
+        <f t="shared" si="1"/>
+        <v>58</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>1494</v>
+      </c>
+      <c r="C59" s="22">
+        <v>2.5720303958219799</v>
+      </c>
+      <c r="D59" s="23">
+        <f t="shared" si="0"/>
+        <v>2.5720303958219799</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="21">
+        <f t="shared" si="1"/>
+        <v>59</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>1495</v>
+      </c>
+      <c r="C60" s="22">
+        <v>2.5429980749878198</v>
+      </c>
+      <c r="D60" s="23">
+        <f t="shared" si="0"/>
+        <v>2.5429980749878198</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="21">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>1496</v>
+      </c>
+      <c r="C61" s="22">
+        <v>2.3253291327242702</v>
+      </c>
+      <c r="D61" s="23">
+        <f t="shared" si="0"/>
+        <v>2.3253291327242702</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="21">
+        <f t="shared" si="1"/>
+        <v>61</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>1497</v>
+      </c>
+      <c r="C62" s="22">
+        <v>2.3175922683362198</v>
+      </c>
+      <c r="D62" s="23">
+        <f t="shared" si="0"/>
+        <v>2.3175922683362198</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="21">
+        <f t="shared" si="1"/>
+        <v>62</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>1498</v>
+      </c>
+      <c r="C63" s="22">
+        <v>2.2980215516906002</v>
+      </c>
+      <c r="D63" s="23">
+        <f t="shared" si="0"/>
+        <v>2.2980215516906002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="21">
+        <f t="shared" si="1"/>
+        <v>63</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>1499</v>
+      </c>
+      <c r="C64" s="22">
+        <v>2.1940420893686601</v>
+      </c>
+      <c r="D64" s="23">
+        <f t="shared" si="0"/>
+        <v>2.1940420893686601</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="21">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>1500</v>
+      </c>
+      <c r="C65" s="22">
+        <v>2.1442526779471098</v>
+      </c>
+      <c r="D65" s="23">
+        <f t="shared" si="0"/>
+        <v>2.1442526779471098</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="21">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>1501</v>
+      </c>
+      <c r="C66" s="22">
+        <v>2.08512340456836</v>
+      </c>
+      <c r="D66" s="23">
+        <f t="shared" ref="D66:D129" si="2">C66</f>
+        <v>2.08512340456836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="21">
+        <f t="shared" ref="A67:A130" si="3">ROW(A66)</f>
+        <v>66</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>1502</v>
+      </c>
+      <c r="C67" s="22">
+        <v>2.0675375037641999</v>
+      </c>
+      <c r="D67" s="23">
+        <f t="shared" si="2"/>
+        <v>2.0675375037641999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="21">
+        <f t="shared" si="3"/>
+        <v>67</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>1503</v>
+      </c>
+      <c r="C68" s="22">
+        <v>2.0647515761247899</v>
+      </c>
+      <c r="D68" s="23">
+        <f t="shared" si="2"/>
+        <v>2.0647515761247899</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="21">
+        <f t="shared" si="3"/>
+        <v>68</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>1504</v>
+      </c>
+      <c r="C69" s="22">
+        <v>2.0431603193416401</v>
+      </c>
+      <c r="D69" s="23">
+        <f t="shared" si="2"/>
+        <v>2.0431603193416401</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="21">
+        <f t="shared" si="3"/>
+        <v>69</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>1505</v>
+      </c>
+      <c r="C70" s="22">
+        <v>1.99081581008249</v>
+      </c>
+      <c r="D70" s="23">
+        <f t="shared" si="2"/>
+        <v>1.99081581008249</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="21">
+        <f t="shared" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>1506</v>
+      </c>
+      <c r="C71" s="22">
+        <v>1.9112287902159499</v>
+      </c>
+      <c r="D71" s="23">
+        <f t="shared" si="2"/>
+        <v>1.9112287902159499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="21">
+        <f t="shared" si="3"/>
+        <v>71</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>1507</v>
+      </c>
+      <c r="C72" s="22">
+        <v>1.8693790483692301</v>
+      </c>
+      <c r="D72" s="23">
+        <f t="shared" si="2"/>
+        <v>1.8693790483692301</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="21">
+        <f t="shared" si="3"/>
+        <v>72</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>1508</v>
+      </c>
+      <c r="C73" s="22">
+        <v>1.8038353601496699</v>
+      </c>
+      <c r="D73" s="23">
+        <f t="shared" si="2"/>
+        <v>1.8038353601496699</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="21">
+        <f t="shared" si="3"/>
+        <v>73</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>1509</v>
+      </c>
+      <c r="C74" s="22">
+        <v>1.7998610145934699</v>
+      </c>
+      <c r="D74" s="23">
+        <f t="shared" si="2"/>
+        <v>1.7998610145934699</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="21">
+        <f t="shared" si="3"/>
+        <v>74</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>1510</v>
+      </c>
+      <c r="C75" s="22">
+        <v>1.79869817062424</v>
+      </c>
+      <c r="D75" s="23">
+        <f t="shared" si="2"/>
+        <v>1.79869817062424</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="21">
+        <f t="shared" si="3"/>
+        <v>75</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>1511</v>
+      </c>
+      <c r="C76" s="22">
+        <v>1.76865477275687</v>
+      </c>
+      <c r="D76" s="23">
+        <f t="shared" si="2"/>
+        <v>1.76865477275687</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="21">
+        <f t="shared" si="3"/>
+        <v>76</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>1512</v>
+      </c>
+      <c r="C77" s="22">
+        <v>1.7670102337228999</v>
+      </c>
+      <c r="D77" s="23">
+        <f t="shared" si="2"/>
+        <v>1.7670102337228999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="21">
+        <f t="shared" si="3"/>
+        <v>77</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>1513</v>
+      </c>
+      <c r="C78" s="22">
+        <v>1.7549489259281399</v>
+      </c>
+      <c r="D78" s="23">
+        <f t="shared" si="2"/>
+        <v>1.7549489259281399</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="21">
+        <f t="shared" si="3"/>
+        <v>78</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>1514</v>
+      </c>
+      <c r="C79" s="22">
+        <v>1.71761503673676</v>
+      </c>
+      <c r="D79" s="23">
+        <f t="shared" si="2"/>
+        <v>1.71761503673676</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="21">
+        <f t="shared" si="3"/>
+        <v>79</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>1515</v>
+      </c>
+      <c r="C80" s="22">
+        <v>1.65943545527661</v>
+      </c>
+      <c r="D80" s="23">
+        <f t="shared" si="2"/>
+        <v>1.65943545527661</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A81" s="21">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>1516</v>
+      </c>
+      <c r="C81" s="22">
+        <v>1.6377050167406</v>
+      </c>
+      <c r="D81" s="23">
+        <f t="shared" si="2"/>
+        <v>1.6377050167406</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A82" s="21">
+        <f t="shared" si="3"/>
+        <v>81</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C82" s="22">
+        <v>1.5832390064711801</v>
+      </c>
+      <c r="D82" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5832390064711801</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A83" s="21">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>1518</v>
+      </c>
+      <c r="C83" s="22">
+        <v>1.5120820004354401</v>
+      </c>
+      <c r="D83" s="23">
+        <f t="shared" si="2"/>
+        <v>1.5120820004354401</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A84" s="21">
+        <f t="shared" si="3"/>
+        <v>83</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>1519</v>
+      </c>
+      <c r="C84" s="22">
+        <v>1.49940120836153</v>
+      </c>
+      <c r="D84" s="23">
+        <f t="shared" si="2"/>
+        <v>1.49940120836153</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A85" s="21">
+        <f t="shared" si="3"/>
+        <v>84</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>1520</v>
+      </c>
+      <c r="C85" s="22">
+        <v>1.47534960556189</v>
+      </c>
+      <c r="D85" s="23">
+        <f t="shared" si="2"/>
+        <v>1.47534960556189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A86" s="21">
+        <f t="shared" si="3"/>
+        <v>85</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>1521</v>
+      </c>
+      <c r="C86" s="22">
+        <v>1.3765661944466701</v>
+      </c>
+      <c r="D86" s="23">
+        <f t="shared" si="2"/>
+        <v>1.3765661944466701</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A87" s="21">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>1522</v>
+      </c>
+      <c r="C87" s="22">
+        <v>1.3304259741297899</v>
+      </c>
+      <c r="D87" s="23">
+        <f t="shared" si="2"/>
+        <v>1.3304259741297899</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A88" s="21">
+        <f t="shared" si="3"/>
+        <v>87</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>1523</v>
+      </c>
+      <c r="C88" s="22">
+        <v>1.2507419141965099</v>
+      </c>
+      <c r="D88" s="23">
+        <f t="shared" si="2"/>
+        <v>1.2507419141965099</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A89" s="21">
+        <f t="shared" si="3"/>
+        <v>88</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>1524</v>
+      </c>
+      <c r="C89" s="22">
+        <v>1.24656260011895</v>
+      </c>
+      <c r="D89" s="23">
+        <f t="shared" si="2"/>
+        <v>1.24656260011895</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A90" s="21">
+        <f t="shared" si="3"/>
+        <v>89</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>1525</v>
+      </c>
+      <c r="C90" s="22">
+        <v>1.2086549151786601</v>
+      </c>
+      <c r="D90" s="23">
+        <f t="shared" si="2"/>
+        <v>1.2086549151786601</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A91" s="21">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>1526</v>
+      </c>
+      <c r="C91" s="22">
+        <v>1.20782903669134</v>
+      </c>
+      <c r="D91" s="23">
+        <f t="shared" si="2"/>
+        <v>1.20782903669134</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A92" s="21">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>1527</v>
+      </c>
+      <c r="C92" s="22">
+        <v>1.17333800966401</v>
+      </c>
+      <c r="D92" s="23">
+        <f t="shared" si="2"/>
+        <v>1.17333800966401</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A93" s="21">
+        <f t="shared" si="3"/>
+        <v>92</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C93" s="22">
+        <v>1.1615080023856501</v>
+      </c>
+      <c r="D93" s="23">
+        <f t="shared" si="2"/>
+        <v>1.1615080023856501</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A94" s="21">
+        <f t="shared" si="3"/>
+        <v>93</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>1529</v>
+      </c>
+      <c r="C94" s="22">
+        <v>1.1436328454426501</v>
+      </c>
+      <c r="D94" s="23">
+        <f t="shared" si="2"/>
+        <v>1.1436328454426501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A95" s="21">
+        <f t="shared" si="3"/>
+        <v>94</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>1530</v>
+      </c>
+      <c r="C95" s="22">
+        <v>1.0999815280894301</v>
+      </c>
+      <c r="D95" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0999815280894301</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A96" s="21">
+        <f t="shared" si="3"/>
+        <v>95</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>1531</v>
+      </c>
+      <c r="C96" s="22">
+        <v>1.0733480547352401</v>
+      </c>
+      <c r="D96" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0733480547352401</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="21">
+        <f t="shared" si="3"/>
+        <v>96</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>1532</v>
+      </c>
+      <c r="C97" s="22">
+        <v>1.0486239102072901</v>
+      </c>
+      <c r="D97" s="23">
+        <f t="shared" si="2"/>
+        <v>1.0486239102072901</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A98" s="21">
+        <f t="shared" si="3"/>
+        <v>97</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>1533</v>
+      </c>
+      <c r="C98" s="22">
+        <v>1.01379390164348</v>
+      </c>
+      <c r="D98" s="23">
+        <f t="shared" si="2"/>
+        <v>1.01379390164348</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="21">
+        <f t="shared" si="3"/>
+        <v>98</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>1534</v>
+      </c>
+      <c r="C99" s="22">
+        <v>0.99820545541553696</v>
+      </c>
+      <c r="D99" s="23">
+        <f t="shared" si="2"/>
+        <v>0.99820545541553696</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="21">
+        <f t="shared" si="3"/>
+        <v>99</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>1535</v>
+      </c>
+      <c r="C100" s="22">
+        <v>0.98747712777771901</v>
+      </c>
+      <c r="D100" s="23">
+        <f t="shared" si="2"/>
+        <v>0.98747712777771901</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="21">
+        <f t="shared" si="3"/>
+        <v>100</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>1536</v>
+      </c>
+      <c r="C101" s="22">
+        <v>0.98128561118803304</v>
+      </c>
+      <c r="D101" s="23">
+        <f t="shared" si="2"/>
+        <v>0.98128561118803304</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="21">
+        <f t="shared" si="3"/>
+        <v>101</v>
+      </c>
+      <c r="B102" s="21" t="s">
+        <v>1537</v>
+      </c>
+      <c r="C102" s="22">
+        <v>0.97165952314988402</v>
+      </c>
+      <c r="D102" s="23">
+        <f t="shared" si="2"/>
+        <v>0.97165952314988402</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A103" s="21">
+        <f t="shared" si="3"/>
+        <v>102</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>1538</v>
+      </c>
+      <c r="C103" s="22">
+        <v>0.93848508901236005</v>
+      </c>
+      <c r="D103" s="23">
+        <f t="shared" si="2"/>
+        <v>0.93848508901236005</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="21">
+        <f t="shared" si="3"/>
+        <v>103</v>
+      </c>
+      <c r="B104" s="21" t="s">
+        <v>1539</v>
+      </c>
+      <c r="C104" s="22">
+        <v>0.92646779731198603</v>
+      </c>
+      <c r="D104" s="23">
+        <f t="shared" si="2"/>
+        <v>0.92646779731198603</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A105" s="21">
+        <f t="shared" si="3"/>
+        <v>104</v>
+      </c>
+      <c r="B105" s="21" t="s">
+        <v>1540</v>
+      </c>
+      <c r="C105" s="22">
+        <v>0.85872889275980702</v>
+      </c>
+      <c r="D105" s="23">
+        <f t="shared" si="2"/>
+        <v>0.85872889275980702</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="21">
+        <f t="shared" si="3"/>
+        <v>105</v>
+      </c>
+      <c r="B106" s="21" t="s">
+        <v>1541</v>
+      </c>
+      <c r="C106" s="22">
+        <v>0.85137125967663096</v>
+      </c>
+      <c r="D106" s="23">
+        <f t="shared" si="2"/>
+        <v>0.85137125967663096</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A107" s="21">
+        <f t="shared" si="3"/>
+        <v>106</v>
+      </c>
+      <c r="B107" s="21" t="s">
+        <v>1542</v>
+      </c>
+      <c r="C107" s="22">
+        <v>0.79990556200444596</v>
+      </c>
+      <c r="D107" s="23">
+        <f t="shared" si="2"/>
+        <v>0.79990556200444596</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="21">
+        <f t="shared" si="3"/>
+        <v>107</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>1543</v>
+      </c>
+      <c r="C108" s="22">
+        <v>0.73339110010791597</v>
+      </c>
+      <c r="D108" s="23">
+        <f t="shared" si="2"/>
+        <v>0.73339110010791597</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="21">
+        <f t="shared" si="3"/>
+        <v>108</v>
+      </c>
+      <c r="B109" s="21" t="s">
+        <v>1544</v>
+      </c>
+      <c r="C109" s="22">
+        <v>0.71912458585454797</v>
+      </c>
+      <c r="D109" s="23">
+        <f t="shared" si="2"/>
+        <v>0.71912458585454797</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110" s="21">
+        <f t="shared" si="3"/>
+        <v>109</v>
+      </c>
+      <c r="B110" s="21" t="s">
+        <v>1545</v>
+      </c>
+      <c r="C110" s="22">
+        <v>0.71831164284064797</v>
+      </c>
+      <c r="D110" s="23">
+        <f t="shared" si="2"/>
+        <v>0.71831164284064797</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111" s="21">
+        <f t="shared" si="3"/>
+        <v>110</v>
+      </c>
+      <c r="B111" s="21" t="s">
+        <v>1546</v>
+      </c>
+      <c r="C111" s="22">
+        <v>0.70117767418493804</v>
+      </c>
+      <c r="D111" s="23">
+        <f t="shared" si="2"/>
+        <v>0.70117767418493804</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112" s="21">
+        <f t="shared" si="3"/>
+        <v>111</v>
+      </c>
+      <c r="B112" s="21" t="s">
+        <v>1547</v>
+      </c>
+      <c r="C112" s="22">
+        <v>0.60658168504107202</v>
+      </c>
+      <c r="D112" s="23">
+        <f t="shared" si="2"/>
+        <v>0.60658168504107202</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113" s="21">
+        <f t="shared" si="3"/>
+        <v>112</v>
+      </c>
+      <c r="B113" s="21" t="s">
+        <v>1548</v>
+      </c>
+      <c r="C113" s="22">
+        <v>0.59819756198257301</v>
+      </c>
+      <c r="D113" s="23">
+        <f t="shared" si="2"/>
+        <v>0.59819756198257301</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114" s="21">
+        <f t="shared" si="3"/>
+        <v>113</v>
+      </c>
+      <c r="B114" s="21" t="s">
+        <v>1549</v>
+      </c>
+      <c r="C114" s="22">
+        <v>0.59107605195251001</v>
+      </c>
+      <c r="D114" s="23">
+        <f t="shared" si="2"/>
+        <v>0.59107605195251001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A115" s="21">
+        <f t="shared" si="3"/>
+        <v>114</v>
+      </c>
+      <c r="B115" s="21" t="s">
+        <v>1550</v>
+      </c>
+      <c r="C115" s="22">
+        <v>0.58010165459067797</v>
+      </c>
+      <c r="D115" s="23">
+        <f t="shared" si="2"/>
+        <v>0.58010165459067797</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A116" s="21">
+        <f t="shared" si="3"/>
+        <v>115</v>
+      </c>
+      <c r="B116" s="21" t="s">
+        <v>1551</v>
+      </c>
+      <c r="C116" s="22">
+        <v>0.57075362273249197</v>
+      </c>
+      <c r="D116" s="23">
+        <f t="shared" si="2"/>
+        <v>0.57075362273249197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A117" s="21">
+        <f t="shared" si="3"/>
+        <v>116</v>
+      </c>
+      <c r="B117" s="21" t="s">
+        <v>1552</v>
+      </c>
+      <c r="C117" s="22">
+        <v>0.54147040045953898</v>
+      </c>
+      <c r="D117" s="23">
+        <f t="shared" si="2"/>
+        <v>0.54147040045953898</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A118" s="21">
+        <f t="shared" si="3"/>
+        <v>117</v>
+      </c>
+      <c r="B118" s="21" t="s">
+        <v>1553</v>
+      </c>
+      <c r="C118" s="22">
+        <v>0.50441577103852897</v>
+      </c>
+      <c r="D118" s="23">
+        <f t="shared" si="2"/>
+        <v>0.50441577103852897</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A119" s="21">
+        <f t="shared" si="3"/>
+        <v>118</v>
+      </c>
+      <c r="B119" s="21" t="s">
+        <v>1554</v>
+      </c>
+      <c r="C119" s="22">
+        <v>0.48041750958012602</v>
+      </c>
+      <c r="D119" s="23">
+        <f t="shared" si="2"/>
+        <v>0.48041750958012602</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A120" s="21">
+        <f t="shared" si="3"/>
+        <v>119</v>
+      </c>
+      <c r="B120" s="21" t="s">
+        <v>1555</v>
+      </c>
+      <c r="C120" s="22">
+        <v>0.42953772914472599</v>
+      </c>
+      <c r="D120" s="23">
+        <f t="shared" si="2"/>
+        <v>0.42953772914472599</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A121" s="21">
+        <f t="shared" si="3"/>
+        <v>120</v>
+      </c>
+      <c r="B121" s="21" t="s">
+        <v>1556</v>
+      </c>
+      <c r="C121" s="22">
+        <v>0.37567858618044497</v>
+      </c>
+      <c r="D121" s="23">
+        <f t="shared" si="2"/>
+        <v>0.37567858618044497</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A122" s="21">
+        <f t="shared" si="3"/>
+        <v>121</v>
+      </c>
+      <c r="B122" s="21" t="s">
+        <v>1557</v>
+      </c>
+      <c r="C122" s="22">
+        <v>0.37261168095882702</v>
+      </c>
+      <c r="D122" s="23">
+        <f t="shared" si="2"/>
+        <v>0.37261168095882702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A123" s="21">
+        <f t="shared" si="3"/>
+        <v>122</v>
+      </c>
+      <c r="B123" s="21" t="s">
+        <v>1558</v>
+      </c>
+      <c r="C123" s="22">
+        <v>0.33079043313402401</v>
+      </c>
+      <c r="D123" s="23">
+        <f t="shared" si="2"/>
+        <v>0.33079043313402401</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A124" s="21">
+        <f t="shared" si="3"/>
+        <v>123</v>
+      </c>
+      <c r="B124" s="21" t="s">
+        <v>1559</v>
+      </c>
+      <c r="C124" s="22">
+        <v>0.32299209883584701</v>
+      </c>
+      <c r="D124" s="23">
+        <f t="shared" si="2"/>
+        <v>0.32299209883584701</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A125" s="21">
+        <f t="shared" si="3"/>
+        <v>124</v>
+      </c>
+      <c r="B125" s="21" t="s">
+        <v>1560</v>
+      </c>
+      <c r="C125" s="22">
+        <v>0.30569212464080497</v>
+      </c>
+      <c r="D125" s="23">
+        <f t="shared" si="2"/>
+        <v>0.30569212464080497</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A126" s="21">
+        <f t="shared" si="3"/>
+        <v>125</v>
+      </c>
+      <c r="B126" s="21" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C126" s="22">
+        <v>0.29092640102407502</v>
+      </c>
+      <c r="D126" s="23">
+        <f t="shared" si="2"/>
+        <v>0.29092640102407502</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A127" s="21">
+        <f t="shared" si="3"/>
+        <v>126</v>
+      </c>
+      <c r="B127" s="21" t="s">
+        <v>1562</v>
+      </c>
+      <c r="C127" s="22">
+        <v>0.215526212131011</v>
+      </c>
+      <c r="D127" s="23">
+        <f t="shared" si="2"/>
+        <v>0.215526212131011</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A128" s="21">
+        <f t="shared" si="3"/>
+        <v>127</v>
+      </c>
+      <c r="B128" s="21" t="s">
+        <v>1563</v>
+      </c>
+      <c r="C128" s="22">
+        <v>0.197503766378337</v>
+      </c>
+      <c r="D128" s="23">
+        <f t="shared" si="2"/>
+        <v>0.197503766378337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="21">
+        <f t="shared" si="3"/>
+        <v>128</v>
+      </c>
+      <c r="B129" s="21" t="s">
+        <v>1564</v>
+      </c>
+      <c r="C129" s="22">
+        <v>0.194826012593666</v>
+      </c>
+      <c r="D129" s="23">
+        <f t="shared" si="2"/>
+        <v>0.194826012593666</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="21">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="B130" s="21" t="s">
+        <v>1565</v>
+      </c>
+      <c r="C130" s="22">
+        <v>0.17375896861453399</v>
+      </c>
+      <c r="D130" s="23">
+        <f t="shared" ref="D130:D136" si="4">C130</f>
+        <v>0.17375896861453399</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A131" s="21">
+        <f t="shared" ref="A131:A136" si="5">ROW(A130)</f>
+        <v>130</v>
+      </c>
+      <c r="B131" s="21" t="s">
+        <v>1566</v>
+      </c>
+      <c r="C131" s="22">
+        <v>0.15416342529122401</v>
+      </c>
+      <c r="D131" s="23">
+        <f t="shared" si="4"/>
+        <v>0.15416342529122401</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="21">
+        <f t="shared" si="5"/>
+        <v>131</v>
+      </c>
+      <c r="B132" s="21" t="s">
+        <v>1567</v>
+      </c>
+      <c r="C132" s="22">
+        <v>0.14969853806990099</v>
+      </c>
+      <c r="D132" s="23">
+        <f t="shared" si="4"/>
+        <v>0.14969853806990099</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="21">
+        <f t="shared" si="5"/>
+        <v>132</v>
+      </c>
+      <c r="B133" s="21" t="s">
+        <v>1568</v>
+      </c>
+      <c r="C133" s="22">
+        <v>0.14758760076143901</v>
+      </c>
+      <c r="D133" s="23">
+        <f t="shared" si="4"/>
+        <v>0.14758760076143901</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A134" s="21">
+        <f t="shared" si="5"/>
+        <v>133</v>
+      </c>
+      <c r="B134" s="21" t="s">
+        <v>1569</v>
+      </c>
+      <c r="C134" s="22">
+        <v>0.14609405333408801</v>
+      </c>
+      <c r="D134" s="23">
+        <f t="shared" si="4"/>
+        <v>0.14609405333408801</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="21">
+        <f t="shared" si="5"/>
+        <v>134</v>
+      </c>
+      <c r="B135" s="21" t="s">
+        <v>1570</v>
+      </c>
+      <c r="C135" s="22">
+        <v>0.14252694499242199</v>
+      </c>
+      <c r="D135" s="23">
+        <f t="shared" si="4"/>
+        <v>0.14252694499242199</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="21">
+        <f t="shared" si="5"/>
+        <v>135</v>
+      </c>
+      <c r="B136" s="21" t="s">
+        <v>1571</v>
+      </c>
+      <c r="C136" s="22">
+        <v>8.3153449556901293E-2</v>
+      </c>
+      <c r="D136" s="23">
+        <f t="shared" si="4"/>
+        <v>8.3153449556901293E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D2:D136">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF638EC6"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{54BDECAB-7D99-46EB-A977-6844F6294351}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{54BDECAB-7D99-46EB-A977-6844F6294351}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF638EC6"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D2:D136</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
 </file>